--- a/hostSystem/xlsxPaths/flocking1.xlsx
+++ b/hostSystem/xlsxPaths/flocking1.xlsx
@@ -109,8 +109,8 @@
     <col min="2" max="2" width="15.42578125" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
     <col min="7" max="7" width="13.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -148,10 +148,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.20000000000000001</v>
+        <v>-0.29999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F2" s="0">
         <v>0.20000000000000001</v>
@@ -165,22 +165,22 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.087499999999999994</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.204389857373793</v>
+        <v>-0.29999999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.090288164306843846</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0.19750046845353678</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.5902146485713412</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
@@ -188,22 +188,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19689124217106449</v>
+        <v>0.1722798368996814</v>
       </c>
       <c r="C4" s="0">
-        <v>0.9752596040745477</v>
+        <v>0.9783521535652292</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.16423857129276564</v>
+        <v>-0.26273598404658732</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.142768569404639</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>0.23218692320131915</v>
+        <v>0.23248471664357298</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.64697048888493258</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5">
@@ -211,22 +211,22 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28464949836010178</v>
+        <v>0.24906831106508903</v>
       </c>
       <c r="C5" s="0">
-        <v>0.92731705021412736</v>
+        <v>0.93640241893736142</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.10351023244427973</v>
+        <v>-0.20751469452955315</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.18592456740871532</v>
+        <v>0.090852297546831773</v>
       </c>
       <c r="F5" s="0">
-        <v>0.29205775957032221</v>
+        <v>0.28654617699039536</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.69009344999713451</v>
+        <v>-0.50805363370130341</v>
       </c>
     </row>
     <row r="6">
@@ -234,22 +234,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="0">
-        <v>0.35781838524748388</v>
+        <v>0.31309108709154837</v>
       </c>
       <c r="C6" s="0">
-        <v>0.85915317421179394</v>
+        <v>0.87675902743531964</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.032294675134008854</v>
+        <v>-0.14369567107525688</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.23099218339882507</v>
+        <v>0.068330509143743473</v>
       </c>
       <c r="F6" s="0">
-        <v>0.36242182801466188</v>
+        <v>0.34962626128234542</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.73497705753443932</v>
+        <v>-0.529275647283314</v>
       </c>
     </row>
     <row r="7">
@@ -257,22 +257,22 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="0">
-        <v>0.41184861583429788</v>
+        <v>0.36036753885501061</v>
       </c>
       <c r="C7" s="0">
-        <v>0.77500607573100433</v>
+        <v>0.80313031626462872</v>
       </c>
       <c r="D7" s="0">
-        <v>0.039315729016315429</v>
+        <v>-0.080118507297918834</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.28526318823541219</v>
+        <v>0.03062551882840038</v>
       </c>
       <c r="F7" s="0">
-        <v>0.43419353867914645</v>
+        <v>0.41339028309628684</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.78838618032796215</v>
+        <v>-0.56556726008753311</v>
       </c>
     </row>
     <row r="8">
@@ -280,22 +280,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="0">
-        <v>0.44338085207382477</v>
+        <v>0.38795824556459663</v>
       </c>
       <c r="C8" s="0">
-        <v>0.68010761379544571</v>
+        <v>0.72009416207101495</v>
       </c>
       <c r="D8" s="0">
-        <v>0.10389356252237845</v>
+        <v>-0.023435288919973638</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.35121578507237916</v>
+        <v>-0.021827201562802767</v>
       </c>
       <c r="F8" s="0">
-        <v>0.49942472121391468</v>
+        <v>0.47079592246568158</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.85339433082350469</v>
+        <v>-0.61669800439078137</v>
       </c>
     </row>
     <row r="9">
@@ -303,22 +303,22 @@
         <v>3.5</v>
       </c>
       <c r="B9" s="0">
-        <v>0.45045457224059504</v>
+        <v>0.39414775071052061</v>
       </c>
       <c r="C9" s="0">
-        <v>0.58035811513504032</v>
+        <v>0.63281335074316014</v>
       </c>
       <c r="D9" s="0">
-        <v>0.1552997674775228</v>
+        <v>0.020994668623837004</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.42853511122456028</v>
+        <v>-0.086911008993278638</v>
       </c>
       <c r="F9" s="0">
-        <v>0.55198809215683409</v>
+        <v>0.51643309499903034</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.92980606214179318</v>
+        <v>-0.68066642661411114</v>
       </c>
     </row>
     <row r="10">
@@ -326,22 +326,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="0">
-        <v>0.43262996667564585</v>
+        <v>0.37855122084119003</v>
       </c>
       <c r="C10" s="0">
-        <v>0.48195952044764662</v>
+        <v>0.54671458039169063</v>
       </c>
       <c r="D10" s="0">
-        <v>0.18899248468787663</v>
+        <v>0.049264784873208449</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.5146687970503796</v>
+        <v>-0.16119054397512034</v>
       </c>
       <c r="F10" s="0">
-        <v>0.58721427483527389</v>
+        <v>0.54627745853379284</v>
       </c>
       <c r="G10" s="0">
-        <v>-1.0152564512372839</v>
+        <v>-0.75414667581684425</v>
       </c>
     </row>
     <row r="11">
@@ -349,22 +349,22 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="0">
-        <v>0.39101528302093158</v>
+        <v>0.34213837264331509</v>
       </c>
       <c r="C11" s="0">
-        <v>0.39102977776507847</v>
+        <v>0.46715105554444347</v>
       </c>
       <c r="D11" s="0">
-        <v>0.20200389837303881</v>
+        <v>0.058903833471288934</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.60558010456483591</v>
+        <v>-0.24032312910083664</v>
       </c>
       <c r="F11" s="0">
-        <v>0.60204270708463592</v>
+        <v>0.55776250198167432</v>
       </c>
       <c r="G11" s="0">
-        <v>-1.1058271844295489</v>
+        <v>-0.83288618361662792</v>
       </c>
     </row>
     <row r="12">
@@ -372,22 +372,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="0">
-        <v>0.32819792074865767</v>
+        <v>0.28717318065507541</v>
       </c>
       <c r="C12" s="0">
-        <v>0.31322245807628635</v>
+        <v>0.39906965081675039</v>
       </c>
       <c r="D12" s="0">
-        <v>0.19303037099254131</v>
+        <v>0.04892091380153829</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.69634281935577813</v>
+        <v>-0.31947222387650481</v>
       </c>
       <c r="F12" s="0">
-        <v>0.59504345031973915</v>
+        <v>0.54977882064307815</v>
       </c>
       <c r="G12" s="0">
-        <v>-1.1966877436512355</v>
+        <v>-0.91212129039052714</v>
       </c>
     </row>
     <row r="13">
@@ -395,22 +395,22 @@
         <v>5.5</v>
       </c>
       <c r="B13" s="0">
-        <v>0.2480835591939643</v>
+        <v>0.21707311429471871</v>
       </c>
       <c r="C13" s="0">
-        <v>0.2533752436658907</v>
+        <v>0.3467033382076542</v>
       </c>
       <c r="D13" s="0">
-        <v>0.16240534591260147</v>
+        <v>0.019768401490717142</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.78172289419732288</v>
+        <v>-0.39372427727737558</v>
       </c>
       <c r="F13" s="0">
-        <v>0.56640796399928772</v>
+        <v>0.52264239475516427</v>
       </c>
       <c r="G13" s="0">
-        <v>-1.2826555424499875</v>
+        <v>-0.98698218560226547</v>
       </c>
     </row>
     <row r="14">
@@ -418,22 +418,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="0">
-        <v>0.15565332133071796</v>
+        <v>0.13619665616437815</v>
       </c>
       <c r="C14" s="0">
-        <v>0.21520914446065753</v>
+        <v>0.31330800140307519</v>
       </c>
       <c r="D14" s="0">
-        <v>0.11198157880563236</v>
+        <v>-0.026769585607301551</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.8566870335892649</v>
+        <v>-0.45847579200688054</v>
       </c>
       <c r="F14" s="0">
-        <v>0.51783579836348703</v>
+        <v>0.47798577074340537</v>
       </c>
       <c r="G14" s="0">
-        <v>-1.358700853725854</v>
+        <v>-1.0528685220089165</v>
       </c>
     </row>
     <row r="15">
@@ -441,22 +441,22 @@
         <v>6.5</v>
       </c>
       <c r="B15" s="0">
-        <v>0.05665407167067342</v>
+        <v>0.049572312711839178</v>
       </c>
       <c r="C15" s="0">
-        <v>0.2010971436546708</v>
+        <v>0.30096000069783679</v>
       </c>
       <c r="D15" s="0">
-        <v>0.044914978245932227</v>
+        <v>-0.087768431710593828</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.91682392123076217</v>
+        <v>-0.50976331883016024</v>
       </c>
       <c r="F15" s="0">
-        <v>0.45233681326372838</v>
+        <v>0.4185821045246636</v>
       </c>
       <c r="G15" s="0">
-        <v>-1.4203643718839385</v>
+        <v>-1.1057716224858163</v>
       </c>
     </row>
     <row r="16">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.042758895937381206</v>
+        <v>-0.037414033945208619</v>
       </c>
       <c r="C16" s="0">
-        <v>0.21191665710768162</v>
+        <v>0.31042707496922128</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.034617317676577483</v>
+        <v>-0.15941213274826566</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.9586580250630935</v>
+        <v>-0.54451639279957031</v>
       </c>
       <c r="F16" s="0">
-        <v>0.37396619715071572</v>
+        <v>0.3481140622898804</v>
       </c>
       <c r="G16" s="0">
-        <v>-1.4640775413259377</v>
+        <v>-1.1425282142469821</v>
       </c>
     </row>
     <row r="17">
@@ -487,22 +487,22 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.13640456466646084</v>
+        <v>-0.11935399408315329</v>
       </c>
       <c r="C17" s="0">
-        <v>0.24699497987664359</v>
+        <v>0.34112060739206301</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.12173383557814234</v>
+        <v>-0.23727618211267804</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.97985685093806019</v>
+        <v>-0.56072676398050514</v>
       </c>
       <c r="F17" s="0">
-        <v>0.28752073500609543</v>
+        <v>0.2709074748485793</v>
       </c>
       <c r="G17" s="0">
-        <v>-1.4873825090776078</v>
+        <v>-1.16099897818595</v>
       </c>
     </row>
     <row r="18">
@@ -510,22 +510,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.21846050040041692</v>
+        <v>-0.19115293785036486</v>
       </c>
       <c r="C18" s="0">
-        <v>0.30415111175087794</v>
+        <v>0.39113222278201809</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.21117414345373764</v>
+        <v>-0.31662157906151722</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.97934216593359702</v>
+        <v>-0.55753734126929844</v>
       </c>
       <c r="F18" s="0">
-        <v>0.19821960474088693</v>
+        <v>0.19164793870546837</v>
       </c>
       <c r="G18" s="0">
-        <v>-1.4890590990949462</v>
+        <v>-1.1601725222312682</v>
       </c>
     </row>
     <row r="19">
@@ -533,22 +533,22 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.28382486248677813</v>
+        <v>-0.2483467546759309</v>
       </c>
       <c r="C19" s="0">
-        <v>0.37983136128167078</v>
+        <v>0.45735244112146178</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.29761605029831906</v>
+        <v>-0.39268354408071598</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.9573197256748619</v>
+        <v>-0.53525939550329693</v>
       </c>
       <c r="F19" s="0">
-        <v>0.11138713557521691</v>
+        <v>0.115095687926093</v>
       </c>
       <c r="G19" s="0">
-        <v>-1.4691695937916829</v>
+        <v>-1.1401994500331749</v>
       </c>
     </row>
     <row r="20">
@@ -556,22 +556,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.32843361147815742</v>
+        <v>-0.28737941004338774</v>
       </c>
       <c r="C20" s="0">
-        <v>0.46933029710452911</v>
+        <v>0.5356640099664628</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.37597462268201909</v>
+        <v>-0.46094381786828453</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.91524014107691742</v>
+        <v>-0.49532732063189922</v>
       </c>
       <c r="F20" s="0">
-        <v>0.032149274532438626</v>
+        <v>0.045810673345164074</v>
       </c>
       <c r="G20" s="0">
-        <v>-1.4290320294052794</v>
+        <v>-1.1023627296813938</v>
       </c>
     </row>
     <row r="21">
@@ -579,22 +579,22 @@
         <v>9.5</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.34951319142123538</v>
+        <v>-0.30582404249358097</v>
       </c>
       <c r="C21" s="0">
-        <v>0.56708330887103886</v>
+        <v>0.62119789526215874</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.44167622316207189</v>
+        <v>-0.51737865242183478</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.8557003119829939</v>
+        <v>-0.44019906017844701</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.034847534340948325</v>
+        <v>-0.012102487534161169</v>
       </c>
       <c r="G21" s="0">
-        <v>-1.3711307883178911</v>
+        <v>-1.0489906881823645</v>
       </c>
     </row>
     <row r="22">
@@ -602,22 +602,22 @@
         <v>10</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.34575297613243772</v>
+        <v>-0.30253385411588302</v>
       </c>
       <c r="C22" s="0">
-        <v>0.66701258776857664</v>
+        <v>0.70863601429750434</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.49090130523789371</v>
+        <v>-0.55867581976003466</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.78229244141743903</v>
+        <v>-0.37320905810082722</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.085687401994165635</v>
+        <v>-0.05522122942049143</v>
       </c>
       <c r="G22" s="0">
-        <v>-1.2989716551958976</v>
+        <v>-0.98331881994103465</v>
       </c>
     </row>
     <row r="23">
@@ -625,22 +625,22 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.31738675758611506</v>
+        <v>-0.27771341288785073</v>
       </c>
       <c r="C23" s="0">
-        <v>0.76290501523489052</v>
+        <v>0.79254188833052897</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.52078916726412305</v>
+        <v>-0.58241413774419726</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.69940681925933934</v>
+        <v>-0.29838018077079431</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.11739829174894889</v>
+        <v>-0.080995472138040481</v>
       </c>
       <c r="G23" s="0">
-        <v>-1.2168879340872187</v>
+        <v>-0.90930684554890973</v>
       </c>
     </row>
     <row r="24">
@@ -648,22 +648,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.26617820986193097</v>
+        <v>-0.23290593362918965</v>
       </c>
       <c r="C24" s="0">
-        <v>0.84879846457754971</v>
+        <v>0.86769865650535571</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.52959731374856223</v>
+        <v>-0.58719897396922549</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.61199508439814954</v>
+        <v>-0.22020157361203607</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.1281196707563291</v>
+        <v>-0.087894145918901267</v>
       </c>
       <c r="G24" s="0">
-        <v>-1.1298047511050708</v>
+        <v>-0.83141827905880206</v>
       </c>
     </row>
     <row r="25">
@@ -671,22 +671,22 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.19531123243280496</v>
+        <v>-0.17089732837870442</v>
       </c>
       <c r="C25" s="0">
-        <v>0.91935249713458889</v>
+        <v>0.92943343499276498</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.51680802501320133</v>
+        <v>-0.57274745470949895</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.52530205441911482</v>
+        <v>-0.14338060229487182</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.11721675162673931</v>
+        <v>-0.07550072610321365</v>
       </c>
       <c r="G25" s="0">
-        <v>-1.0429699768927838</v>
+        <v>-0.75437106258551623</v>
       </c>
     </row>
     <row r="26">
@@ -694,22 +694,22 @@
         <v>12</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.10919199071665288</v>
+        <v>-0.09554299187707134</v>
       </c>
       <c r="C26" s="0">
-        <v>0.97018040488451474</v>
+        <v>0.9739078542739501</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.48317535372144615</v>
+        <v>-0.53991789811239732</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.44457600629292093</v>
+        <v>-0.07257855863789156</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.085334242516162229</v>
+        <v>-0.04455165446000877</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.96166194781356795</v>
+        <v>-0.68286941084773889</v>
       </c>
     </row>
     <row r="27">
@@ -717,22 +717,22 @@
         <v>12.5</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.013174962051616279</v>
+        <v>-0.011528091795164314</v>
       </c>
       <c r="C27" s="0">
-        <v>0.99812195470440734</v>
+        <v>0.99835671036635609</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.43070704401221233</v>
+        <v>-0.49067936346800273</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.37476919585108937</v>
+        <v>-0.012141418309719758</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.034383815924675515</v>
+        <v>0.003086999114447625</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.89088607350574212</v>
+        <v>-0.62132868130015528</v>
       </c>
     </row>
     <row r="28">
@@ -740,22 +740,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="0">
-        <v>0.086769979770833658</v>
+        <v>0.07592373229947938</v>
       </c>
       <c r="C28" s="0">
-        <v>1.001439876359163</v>
+        <v>1.0012598918142672</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.36257775685169036</v>
+        <v>-0.42801914807393232</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.32024223717581241</v>
+        <v>0.034161566670957787</v>
       </c>
       <c r="F28" s="0">
-        <v>0.032538590154378502</v>
+        <v>0.064507246957988124</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.83507431571393265</v>
+        <v>-0.57360669087846028</v>
       </c>
     </row>
     <row r="29">
@@ -763,22 +763,22 @@
         <v>13.5</v>
       </c>
       <c r="B29" s="0">
-        <v>0.18442874234363599</v>
+        <v>0.16137514955068144</v>
       </c>
       <c r="C29" s="0">
-        <v>0.97992787755038147</v>
+        <v>0.98243689285658331</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.28297246239384155</v>
+        <v>-0.35578855432689876</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.28448762587672044</v>
+        <v>0.063377404346114274</v>
       </c>
       <c r="F29" s="0">
-        <v>0.11130698781219835</v>
+        <v>0.13591124616303227</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.79780329951739049</v>
+        <v>-0.5427563071286694</v>
       </c>
     </row>
     <row r="30">
@@ -786,22 +786,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="0">
-        <v>0.27372937681254367</v>
+        <v>0.23951320471097565</v>
       </c>
       <c r="C30" s="0">
-        <v>0.93492347017231969</v>
+        <v>0.94305803640077923</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.19686197610912684</v>
+        <v>-0.27849030968034022</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.26988910997919852</v>
+        <v>0.073572099244463562</v>
       </c>
       <c r="F30" s="0">
-        <v>0.19698915507480405</v>
+        <v>0.2128243860186505</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.78154837350571826</v>
+        <v>-0.53081520145597794</v>
       </c>
     </row>
     <row r="31">
@@ -809,22 +809,22 @@
         <v>14.5</v>
       </c>
       <c r="B31" s="0">
-        <v>0.34911960224687411</v>
+        <v>0.30547965196601479</v>
       </c>
       <c r="C31" s="0">
-        <v>0.86922481030044074</v>
+        <v>0.88557170901288518</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.10971651818041558</v>
+        <v>-0.20101471243626656</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.27753466915169428</v>
+        <v>0.063981290654002043</v>
       </c>
       <c r="F31" s="0">
-        <v>0.28413395040860401</v>
+        <v>0.29036197712351147</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.78749209013876609</v>
+        <v>-0.53864912726588088</v>
       </c>
     </row>
     <row r="32">
@@ -832,22 +832,22 @@
         <v>15</v>
       </c>
       <c r="B32" s="0">
-        <v>0.40591201957574358</v>
+        <v>0.35517301712877558</v>
       </c>
       <c r="C32" s="0">
-        <v>0.78691672239929022</v>
+        <v>0.81355213209937849</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.027168107574509048</v>
+        <v>-0.12833597696231119</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.3071012757562871</v>
+        <v>0.0350939322689542</v>
       </c>
       <c r="F32" s="0">
-        <v>0.36711066281081262</v>
+        <v>0.36353714432296369</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.81540593441294529</v>
+        <v>-0.56586455275620273</v>
       </c>
     </row>
     <row r="33">
@@ -855,22 +855,22 @@
         <v>15.5</v>
       </c>
       <c r="B33" s="0">
-        <v>0.44057555135924614</v>
+        <v>0.38550360743934031</v>
       </c>
       <c r="C33" s="0">
-        <v>0.69311672472181629</v>
+        <v>0.73147713413158888</v>
       </c>
       <c r="D33" s="0">
-        <v>0.045361192604294456</v>
+        <v>-0.065185367254027821</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.35682877238842114</v>
+        <v>-0.01134411351697083</v>
       </c>
       <c r="F33" s="0">
-        <v>0.44048223773031731</v>
+        <v>0.42759177714412028</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.86362290939988584</v>
+        <v>-0.61080425495499946</v>
       </c>
     </row>
     <row r="34">
@@ -878,22 +878,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="0">
-        <v>0.45095498708117143</v>
+        <v>0.39458561369602496</v>
       </c>
       <c r="C34" s="0">
-        <v>0.59365684681069864</v>
+        <v>0.64444974095936103</v>
       </c>
       <c r="D34" s="0">
-        <v>0.10304072128890646</v>
+        <v>-0.01572326026408933</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.42359701920759801</v>
+        <v>-0.072415931161224356</v>
       </c>
       <c r="F34" s="0">
-        <v>0.49938651077427459</v>
+        <v>0.47832646987039512</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.92911455820979771</v>
+        <v>-0.67063469142605403</v>
       </c>
     </row>
     <row r="35">
@@ -901,22 +901,22 @@
         <v>16.5</v>
       </c>
       <c r="B35" s="0">
-        <v>0.43640498370031006</v>
+        <v>0.38185436073777129</v>
       </c>
       <c r="C35" s="0">
-        <v>0.49472102214836045</v>
+        <v>0.55788089437981514</v>
       </c>
       <c r="D35" s="0">
-        <v>0.14199010521694466</v>
+        <v>0.016762610959283608</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.50311342293867412</v>
+        <v>-0.14421159559745209</v>
       </c>
       <c r="F35" s="0">
-        <v>0.53989224906421873</v>
+        <v>0.5124007036249637</v>
       </c>
       <c r="G35" s="0">
-        <v>-1.0076777731351436</v>
+        <v>-0.74152592075913493</v>
       </c>
     </row>
     <row r="36">
@@ -924,22 +924,22 @@
         <v>17</v>
       </c>
       <c r="B36" s="0">
-        <v>0.3978301899550879</v>
+        <v>0.3481014162107019</v>
       </c>
       <c r="C36" s="0">
-        <v>0.40246060112442639</v>
+        <v>0.47715302598387288</v>
       </c>
       <c r="D36" s="0">
-        <v>0.15957759460474219</v>
+        <v>0.030102585462117564</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.59020578604977603</v>
+        <v>-0.22209121568364981</v>
       </c>
       <c r="F36" s="0">
-        <v>0.55929267814458761</v>
+        <v>0.5275732832665152</v>
       </c>
       <c r="G36" s="0">
-        <v>-1.0942237461057953</v>
+        <v>-0.81891381877946035</v>
       </c>
     </row>
     <row r="37">
@@ -947,22 +947,22 @@
         <v>17.5</v>
       </c>
       <c r="B37" s="0">
-        <v>0.33762899968660554</v>
+        <v>0.29542537472577984</v>
       </c>
       <c r="C37" s="0">
-        <v>0.32261188986207734</v>
+        <v>0.40728540362931748</v>
       </c>
       <c r="D37" s="0">
-        <v>0.15462019248840567</v>
+        <v>0.023405801845608861</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.6791986613130554</v>
+        <v>-0.30101342331552383</v>
       </c>
       <c r="F37" s="0">
-        <v>0.55630187313866497</v>
+        <v>0.52285737284508471</v>
       </c>
       <c r="G37" s="0">
-        <v>-1.1831453847602664</v>
+        <v>-0.89782235741562788</v>
       </c>
     </row>
     <row r="38">
@@ -970,22 +970,22 @@
         <v>18</v>
       </c>
       <c r="B38" s="0">
-        <v>0.25954443132603061</v>
+        <v>0.22710137741027681</v>
       </c>
       <c r="C38" s="0">
-        <v>0.26013949448665807</v>
+        <v>0.35262205767582566</v>
       </c>
       <c r="D38" s="0">
-        <v>0.12745818592481625</v>
+        <v>-0.0028836947175572177</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.76433421894738707</v>
+        <v>-0.37589788928998352</v>
       </c>
       <c r="F38" s="0">
-        <v>0.53113104170015624</v>
+        <v>0.49857483067492553</v>
       </c>
       <c r="G38" s="0">
-        <v>-1.2687251917662858</v>
+        <v>-0.97321439596868742</v>
       </c>
     </row>
     <row r="39">
@@ -993,22 +993,22 @@
         <v>18.5</v>
       </c>
       <c r="B39" s="0">
-        <v>0.16843140513756291</v>
+        <v>0.14737747949536756</v>
       </c>
       <c r="C39" s="0">
-        <v>0.21892764596248243</v>
+        <v>0.31656169021717195</v>
       </c>
       <c r="D39" s="0">
-        <v>0.079896858726017927</v>
+        <v>-0.047040703656212698</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.84018844369889667</v>
+        <v>-0.44198362177178047</v>
       </c>
       <c r="F39" s="0">
-        <v>0.48544032174134288</v>
+        <v>0.45630855984634816</v>
       </c>
       <c r="G39" s="0">
-        <v>-1.3455389315111834</v>
+        <v>-1.0403362734983128</v>
       </c>
     </row>
     <row r="40">
@@ -1016,22 +1016,22 @@
         <v>19</v>
       </c>
       <c r="B40" s="0">
-        <v>0.069954887790830547</v>
+        <v>0.061210526816976737</v>
       </c>
       <c r="C40" s="0">
-        <v>0.20153869742443908</v>
+        <v>0.301346360246384</v>
       </c>
       <c r="D40" s="0">
-        <v>0.015031707456731019</v>
+        <v>-0.10621088731587067</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.90203651957827924</v>
+        <v>-0.49514667603145407</v>
       </c>
       <c r="F40" s="0">
-        <v>0.42218100188936503</v>
+        <v>0.39876488512924368</v>
       </c>
       <c r="G40" s="0">
-        <v>-1.4088146227227052</v>
+        <v>-1.0950255475632107</v>
       </c>
     </row>
     <row r="41">
@@ -1039,22 +1039,22 @@
         <v>19.5</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.029762327828807306</v>
+        <v>-0.026042036850206382</v>
       </c>
       <c r="C41" s="0">
-        <v>0.20905380947062002</v>
+        <v>0.30792208328679233</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.063009701312589775</v>
+        <v>-0.17663659701103665</v>
       </c>
       <c r="E41" s="0">
-        <v>-0.94613679925350891</v>
+        <v>-0.53215121491711115</v>
       </c>
       <c r="F41" s="0">
-        <v>0.3453561155663204</v>
+        <v>0.32956668542738649</v>
       </c>
       <c r="G41" s="0">
-        <v>-1.4547193436075982</v>
+        <v>-1.1339603731059893</v>
       </c>
     </row>
     <row r="42">
@@ -1062,22 +1062,22 @@
         <v>20</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.12452030822660662</v>
+        <v>-0.10895526969828079</v>
       </c>
       <c r="C42" s="0">
-        <v>0.24100572883284738</v>
+        <v>0.33588001272874124</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.14937211736829625</v>
+        <v>-0.25392731997855889</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.96992260126012719</v>
+        <v>-0.55082196693927876</v>
       </c>
       <c r="F42" s="0">
-        <v>0.25973093757668442</v>
+        <v>0.25300084555515168</v>
       </c>
       <c r="G42" s="0">
-        <v>-1.4805619091295597</v>
+        <v>-1.1548394826582931</v>
       </c>
     </row>
     <row r="43">
@@ -1085,22 +1085,22 @@
         <v>20.5</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.20842746113425187</v>
+        <v>-0.18237402849247036</v>
       </c>
       <c r="C43" s="0">
-        <v>0.29540783992178438</v>
+        <v>0.38348185993156109</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.23879281456966517</v>
+        <v>-0.33334852510324031</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.97210609468932196</v>
+        <v>-0.55013819179390366</v>
       </c>
       <c r="F43" s="0">
-        <v>0.17052080711614792</v>
+        <v>0.17374178890442843</v>
       </c>
       <c r="G43" s="0">
-        <v>-1.4849117801441301</v>
+        <v>-1.1564903378810139</v>
       </c>
     </row>
     <row r="44">
@@ -1108,22 +1108,22 @@
         <v>21</v>
       </c>
       <c r="B44" s="0">
-        <v>-0.27626684618163638</v>
+        <v>-0.24173349040893183</v>
       </c>
       <c r="C44" s="0">
-        <v>0.36887768296226392</v>
+        <v>0.4477679725919807</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.32591751922201717</v>
+        <v>-0.41010941658887684</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.95270506244737174</v>
+        <v>-0.5302560535773353</v>
       </c>
       <c r="F44" s="0">
-        <v>0.083076416616446713</v>
+        <v>0.096568824240527734</v>
       </c>
       <c r="G44" s="0">
-        <v>-1.4676410409556069</v>
+        <v>-1.138908387917678</v>
       </c>
     </row>
     <row r="45">
@@ -1131,22 +1131,22 @@
         <v>21.5</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.32382053898123564</v>
+        <v>-0.28334297160858118</v>
       </c>
       <c r="C45" s="0">
-        <v>0.4568472589594309</v>
+        <v>0.52474135158950186</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.40560015633134366</v>
+        <v>-0.47963654380843823</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.91300344075199424</v>
+        <v>-0.49246820491510168</v>
       </c>
       <c r="F45" s="0">
-        <v>0.0025802142736831291</v>
+        <v>0.026090946347378255</v>
       </c>
       <c r="G45" s="0">
-        <v>-1.4298978599232899</v>
+        <v>-1.1032327844612946</v>
       </c>
     </row>
     <row r="46">
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.34813188123733863</v>
+        <v>-0.3046153960826713</v>
       </c>
       <c r="C46" s="0">
-        <v>0.55384704575149879</v>
+        <v>0.60961616503256122</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.47317874955488254</v>
+        <v>-0.53782435767032732</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.85545414536352271</v>
+        <v>-0.43910868091998745</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.066236386976739947</v>
+        <v>-0.033510251245406034</v>
       </c>
       <c r="G46" s="0">
-        <v>-1.3740189998312029</v>
+        <v>-1.0516645356936272</v>
       </c>
     </row>
     <row r="47">
@@ -1177,22 +1177,22 @@
         <v>22.5</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.34768931143853354</v>
+        <v>-0.30422814750871685</v>
       </c>
       <c r="C47" s="0">
-        <v>0.65384606640656917</v>
+        <v>0.69711530810574773</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.5247209860105827</v>
+        <v>-0.58125565580612459</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.78353060709267264</v>
+        <v>-0.37341003048444477</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.11934691415144122</v>
+        <v>-0.078710581096977178</v>
       </c>
       <c r="G47" s="0">
-        <v>-1.3033878044824692</v>
+        <v>-0.98733314320657162</v>
       </c>
     </row>
     <row r="48">
@@ -1200,22 +1200,22 @@
         <v>23</v>
       </c>
       <c r="B48" s="0">
-        <v>-0.32252034643135807</v>
+        <v>-0.28220530312743836</v>
       </c>
       <c r="C48" s="0">
-        <v>0.75062686615769536</v>
+        <v>0.78179850788798311</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.557232680615799</v>
+        <v>-0.60738534434997504</v>
       </c>
       <c r="E48" s="0">
-        <v>-0.70153269632157134</v>
+        <v>-0.29931910316510457</v>
       </c>
       <c r="F48" s="0">
-        <v>-0.15364705015417235</v>
+        <v>-0.10683801426764751</v>
       </c>
       <c r="G48" s="0">
-        <v>-1.2222437227905805</v>
+        <v>-0.91411804024469279</v>
       </c>
     </row>
     <row r="49">
@@ -1223,22 +1223,22 @@
         <v>23.5</v>
       </c>
       <c r="B49" s="0">
-        <v>-0.27418987055605748</v>
+        <v>-0.23991613673655035</v>
       </c>
       <c r="C49" s="0">
-        <v>0.83817208362653817</v>
+        <v>0.8584005731732206</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.56882187163810605</v>
+        <v>-0.61468100607363196</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.61435326653752864</v>
+        <v>-0.22127830845951452</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.16712726094842659</v>
+        <v>-0.11622447436486771</v>
       </c>
       <c r="G49" s="0">
-        <v>-1.1354500363798798</v>
+        <v>-0.83643192876708972</v>
       </c>
     </row>
     <row r="50">
@@ -1246,22 +1246,22 @@
         <v>24</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.20570283871770215</v>
+        <v>-0.17998998387798942</v>
       </c>
       <c r="C50" s="0">
-        <v>0.91103858120925518</v>
+        <v>0.92215875855809792</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.55881118851531164</v>
+        <v>-0.60271401606889174</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.52721295302463322</v>
+        <v>-0.14398026715822324</v>
       </c>
       <c r="F50" s="0">
-        <v>-0.15899306551580827</v>
+        <v>-0.10630753410184729</v>
       </c>
       <c r="G50" s="0">
-        <v>-1.0482278043421529</v>
+        <v>-0.75897436258897999</v>
       </c>
     </row>
     <row r="51">
@@ -1269,22 +1269,22 @@
         <v>24.5</v>
       </c>
       <c r="B51" s="0">
-        <v>-0.12131744284445294</v>
+        <v>-0.10615276248889637</v>
       </c>
       <c r="C51" s="0">
-        <v>0.96469587300929871</v>
+        <v>0.96910888888313595</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.52779167992118148</v>
+        <v>-0.57219567638152102</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.44537268859120549</v>
+        <v>-0.072105262337045131</v>
       </c>
       <c r="F51" s="0">
-        <v>-0.12972581930861016</v>
+        <v>-0.077675806633631578</v>
       </c>
       <c r="G51" s="0">
-        <v>-0.96586580874267192</v>
+        <v>-0.68646547077684539</v>
       </c>
     </row>
     <row r="52">
@@ -1292,22 +1292,22 @@
         <v>25</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.026280358137685589</v>
+        <v>-0.022995313370474932</v>
       </c>
       <c r="C52" s="0">
-        <v>0.99580780850741146</v>
+        <v>0.9963318324439846</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.47761249364390423</v>
+        <v>-0.52495413676280311</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.3738353312901429</v>
+        <v>-0.010052491511570144</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.081078112837781241</v>
+        <v>-0.032053243024321866</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.89341821095608487</v>
+        <v>-0.62337136815156646</v>
       </c>
     </row>
     <row r="53">
@@ -1315,22 +1315,22 @@
         <v>25.5</v>
       </c>
       <c r="B53" s="0">
-        <v>0.07349946978017248</v>
+        <v>0.064312036057650873</v>
       </c>
       <c r="C53" s="0">
-        <v>1.0024399982425316</v>
+        <v>1.0021349984622148</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.4113026137397211</v>
+        <v>-0.46384972678961828</v>
       </c>
       <c r="E53" s="0">
-        <v>-0.31704965139208652</v>
+        <v>0.038322378750155581</v>
       </c>
       <c r="F53" s="0">
-        <v>-0.015999717781287726</v>
+        <v>0.027780494533518919</v>
       </c>
       <c r="G53" s="0">
-        <v>-0.83540353439495618</v>
+        <v>-0.5736343975767576</v>
       </c>
     </row>
     <row r="54">
@@ -1338,22 +1338,22 @@
         <v>26</v>
       </c>
       <c r="B54" s="0">
-        <v>0.17181821448493165</v>
+        <v>0.15034093767431517</v>
       </c>
       <c r="C54" s="0">
-        <v>0.98418008477941821</v>
+        <v>0.98615757418199057</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.33292325267575329</v>
+        <v>-0.39262872605756094</v>
       </c>
       <c r="E54" s="0">
-        <v>-0.27863159355915806</v>
+        <v>0.069949587128298407</v>
       </c>
       <c r="F54" s="0">
-        <v>0.061507542308599991</v>
+        <v>0.098133877439876172</v>
       </c>
       <c r="G54" s="0">
-        <v>-0.79552036396841941</v>
+        <v>-0.54042275990254018</v>
       </c>
     </row>
     <row r="55">
@@ -1361,22 +1361,22 @@
         <v>26.5</v>
       </c>
       <c r="B55" s="0">
-        <v>0.26256289262995125</v>
+        <v>0.22974253105120734</v>
       </c>
       <c r="C55" s="0">
-        <v>0.94216338109675413</v>
+        <v>0.94939295845965954</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.24735249632563777</v>
+        <v>-0.31571855100384033</v>
       </c>
       <c r="E55" s="0">
-        <v>-0.26111914749040904</v>
+        <v>0.082752892675648643</v>
       </c>
       <c r="F55" s="0">
-        <v>0.146604485687584</v>
+        <v>0.17460868480426106</v>
       </c>
       <c r="G55" s="0">
-        <v>-0.77639670602089306</v>
+        <v>-0.52591517270768062</v>
       </c>
     </row>
     <row r="56">
@@ -1384,22 +1384,22 @@
         <v>27</v>
       </c>
       <c r="B56" s="0">
-        <v>0.34009143964288002</v>
+        <v>0.29758000968752002</v>
       </c>
       <c r="C56" s="0">
-        <v>0.87900228232493027</v>
+        <v>0.89412699703431364</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.16000752892034609</v>
+        <v>-0.23797088840177627</v>
       </c>
       <c r="E56" s="0">
-        <v>-0.26577822707235499</v>
+        <v>0.075807317789558182</v>
       </c>
       <c r="F56" s="0">
-        <v>0.23389332876502911</v>
+        <v>0.25235968532444097</v>
       </c>
       <c r="G56" s="0">
-        <v>-0.77939113279222305</v>
+        <v>-0.53113674524138355</v>
       </c>
     </row>
     <row r="57">
@@ -1407,22 +1407,22 @@
         <v>27.5</v>
       </c>
       <c r="B57" s="0">
-        <v>0.39958350597386921</v>
+        <v>0.34963556772713555</v>
       </c>
       <c r="C57" s="0">
-        <v>0.79862383966976813</v>
+        <v>0.82379585971104685</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.076514440731417485</v>
+        <v>-0.1643635318541814</v>
       </c>
       <c r="E57" s="0">
-        <v>-0.29247744166131201</v>
+        <v>0.049432225259110021</v>
       </c>
       <c r="F57" s="0">
-        <v>0.31774991268459246</v>
+        <v>0.3263972234129987</v>
       </c>
       <c r="G57" s="0">
-        <v>-0.80446430498767052</v>
+        <v>-0.55586188623935007</v>
       </c>
     </row>
     <row r="58">
@@ -1430,22 +1430,22 @@
         <v>28</v>
       </c>
       <c r="B58" s="0">
-        <v>0.43734016308359852</v>
+        <v>0.38267264269814871</v>
       </c>
       <c r="C58" s="0">
-        <v>0.70602559538890541</v>
+        <v>0.74277239596529199</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0023414897282794528</v>
+        <v>-0.099676603585411694</v>
       </c>
       <c r="E58" s="0">
-        <v>-0.33964902681704701</v>
+        <v>0.0052064344169837073</v>
       </c>
       <c r="F58" s="0">
-        <v>0.39269242711295077</v>
+        <v>0.39191553054249101</v>
       </c>
       <c r="G58" s="0">
-        <v>-0.85013854094029528</v>
+        <v>-0.59859814846876025</v>
       </c>
     </row>
     <row r="59">
@@ -1453,22 +1453,22 @@
         <v>28.5</v>
       </c>
       <c r="B59" s="0">
-        <v>0.45101388490438188</v>
+        <v>0.39463714929133414</v>
       </c>
       <c r="C59" s="0">
-        <v>0.60696485981941839</v>
+        <v>0.65609425234199081</v>
       </c>
       <c r="D59" s="0">
-        <v>0.057581205604950385</v>
+        <v>-0.048164265566467135</v>
       </c>
       <c r="E59" s="0">
-        <v>-0.40435052065771709</v>
+        <v>-0.054104566011035568</v>
       </c>
       <c r="F59" s="0">
-        <v>0.45376218395978435</v>
+        <v>0.44462369875299995</v>
       </c>
       <c r="G59" s="0">
-        <v>-0.91355964734434059</v>
+        <v>-0.65666061384550112</v>
       </c>
     </row>
     <row r="60">
@@ -1476,22 +1476,22 @@
         <v>29</v>
       </c>
       <c r="B60" s="0">
-        <v>0.43975450564099833</v>
+        <v>0.38478519243587356</v>
       </c>
       <c r="C60" s="0">
-        <v>0.50760074970614211</v>
+        <v>0.56915065599287407</v>
       </c>
       <c r="D60" s="0">
-        <v>0.099224871385668906</v>
+        <v>-0.013248210528569129</v>
       </c>
       <c r="E60" s="0">
-        <v>-0.48243560078600806</v>
+        <v>-0.1247132223359462</v>
       </c>
       <c r="F60" s="0">
-        <v>0.49688455906467277</v>
+        <v>0.48105130545021946</v>
       </c>
       <c r="G60" s="0">
-        <v>-0.99066785851700623</v>
+        <v>-0.72633898101128547</v>
       </c>
     </row>
     <row r="61">
@@ -1499,22 +1499,22 @@
         <v>29.5</v>
       </c>
       <c r="B61" s="0">
-        <v>0.40426207896212785</v>
+        <v>0.35372931909186189</v>
       </c>
       <c r="C61" s="0">
-        <v>0.41411124415367379</v>
+        <v>0.48734733863446433</v>
       </c>
       <c r="D61" s="0">
-        <v>0.11977125539681818</v>
+        <v>0.0027373907514982379</v>
       </c>
       <c r="E61" s="0">
-        <v>-0.56883144908101668</v>
+        <v>-0.20206098984308665</v>
       </c>
       <c r="F61" s="0">
-        <v>0.51917336309304252</v>
+        <v>0.49879874005064079</v>
       </c>
       <c r="G61" s="0">
-        <v>-1.0764726372544056</v>
+        <v>-0.80314897700645704</v>
       </c>
     </row>
     <row r="62">
@@ -1522,22 +1522,22 @@
         <v>30</v>
       </c>
       <c r="B62" s="0">
-        <v>0.34674335205388757</v>
+        <v>0.30340043304715164</v>
       </c>
       <c r="C62" s="0">
-        <v>0.33230906780820435</v>
+        <v>0.41577043433217858</v>
       </c>
       <c r="D62" s="0">
-        <v>0.11782972838613433</v>
+        <v>-0.0012794235356514416</v>
       </c>
       <c r="E62" s="0">
-        <v>-0.65790411226763779</v>
+        <v>-0.28113856429111916</v>
       </c>
       <c r="F62" s="0">
-        <v>0.51914317626888784</v>
+        <v>0.49670557974334673</v>
       </c>
       <c r="G62" s="0">
-        <v>-1.165410463791855</v>
+        <v>-0.88214774997807222</v>
       </c>
     </row>
     <row r="63">
@@ -1545,22 +1545,22 @@
         <v>30.5</v>
       </c>
       <c r="B63" s="0">
-        <v>0.27077456076800543</v>
+        <v>0.23692774067200478</v>
       </c>
       <c r="C63" s="0">
-        <v>0.26728028379249269</v>
+        <v>0.35887024831843084</v>
       </c>
       <c r="D63" s="0">
-        <v>0.093532372835537933</v>
+        <v>-0.025035869399085753</v>
       </c>
       <c r="E63" s="0">
-        <v>-0.74387586344219847</v>
+        <v>-0.35684578159822566</v>
       </c>
       <c r="F63" s="0">
-        <v>0.49680418826312728</v>
+        <v>0.47491975731141101</v>
       </c>
       <c r="G63" s="0">
-        <v>-1.2517497628370542</v>
+        <v>-0.95828290695925711</v>
       </c>
     </row>
     <row r="64">
@@ -1568,22 +1568,22 @@
         <v>31</v>
       </c>
       <c r="B64" s="0">
-        <v>0.18107907659777656</v>
+        <v>0.15844419202305449</v>
       </c>
       <c r="C64" s="0">
-        <v>0.22306806693483874</v>
+        <v>0.32018455856798367</v>
       </c>
       <c r="D64" s="0">
-        <v>0.048495573012527479</v>
+        <v>-0.066972146767537002</v>
       </c>
       <c r="E64" s="0">
-        <v>-0.82124644218906528</v>
+        <v>-0.42435362605508725</v>
       </c>
       <c r="F64" s="0">
-        <v>0.45363173051619327</v>
+        <v>0.43486390454117357</v>
       </c>
       <c r="G64" s="0">
-        <v>-1.3299987368121868</v>
+        <v>-1.0267405127564417</v>
       </c>
     </row>
     <row r="65">
@@ -1591,22 +1591,22 @@
         <v>31.5</v>
       </c>
       <c r="B65" s="0">
-        <v>0.083233730315888141</v>
+        <v>0.072829514026402115</v>
       </c>
       <c r="C65" s="0">
-        <v>0.20242131874105909</v>
+        <v>0.30211865389842646</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.014339733875086483</v>
+        <v>-0.12437069876122593</v>
       </c>
       <c r="E65" s="0">
-        <v>-0.88517023972322972</v>
+        <v>-0.47943089732116795</v>
       </c>
       <c r="F65" s="0">
-        <v>0.39242237415030001</v>
+        <v>0.37910897548599715</v>
       </c>
       <c r="G65" s="0">
-        <v>-1.3952741068642622</v>
+        <v>-1.083260267182039</v>
       </c>
     </row>
     <row r="66">
@@ -1614,22 +1614,22 @@
         <v>32</v>
       </c>
       <c r="B66" s="0">
-        <v>-0.016677928352085258</v>
+        <v>-0.014593187308074615</v>
       </c>
       <c r="C66" s="0">
-        <v>0.20662375401294317</v>
+        <v>0.30579578476132502</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.090958029112459163</v>
+        <v>-0.19357418128965131</v>
       </c>
       <c r="E66" s="0">
-        <v>-0.93175506175193656</v>
+        <v>-0.51870706277417367</v>
       </c>
       <c r="F66" s="0">
-        <v>0.31706305124735867</v>
+        <v>0.31117492915165895</v>
       </c>
       <c r="G66" s="0">
-        <v>-1.4436005051898664</v>
+        <v>-1.1243946087572392</v>
       </c>
     </row>
     <row r="67">
@@ -1637,22 +1637,22 @@
         <v>32.5</v>
       </c>
       <c r="B67" s="0">
-        <v>-0.11244387638442373</v>
+        <v>-0.09838839183637077</v>
       </c>
       <c r="C67" s="0">
-        <v>0.23541408567944969</v>
+        <v>0.33098732496951822</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.17657160080761636</v>
+        <v>-0.27025289593462337</v>
       </c>
       <c r="E67" s="0">
-        <v>-0.95826806290211408</v>
+        <v>-0.53985675534479394</v>
       </c>
       <c r="F67" s="0">
-        <v>0.23224500403737192</v>
+        <v>0.23528207668559131</v>
       </c>
       <c r="G67" s="0">
-        <v>-1.4721258971535565</v>
+        <v>-1.1476990125498805</v>
       </c>
     </row>
     <row r="68">
@@ -1660,22 +1660,22 @@
         <v>33</v>
       </c>
       <c r="B68" s="0">
-        <v>-0.19810985096730796</v>
+        <v>-0.17334611959639448</v>
       </c>
       <c r="C68" s="0">
-        <v>0.28700227036126064</v>
+        <v>0.37612698656610277</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.26594267731578713</v>
+        <v>-0.34969419654566719</v>
       </c>
       <c r="E68" s="0">
-        <v>-0.96325113861089184</v>
+        <v>-0.54170431026035604</v>
       </c>
       <c r="F68" s="0">
-        <v>0.14315137869470024</v>
+        <v>0.15607554674846069</v>
       </c>
       <c r="G68" s="0">
-        <v>-1.4792517083158017</v>
+        <v>-1.1518498671386819</v>
       </c>
     </row>
     <row r="69">
@@ -1683,22 +1683,22 @@
         <v>33.5</v>
       </c>
       <c r="B69" s="0">
-        <v>-0.26834955671757932</v>
+        <v>-0.2348058621278819</v>
       </c>
       <c r="C69" s="0">
-        <v>0.35818080459817292</v>
+        <v>0.43840820402340103</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.35370298946038281</v>
+        <v>-0.42709284115148344</v>
       </c>
       <c r="E69" s="0">
-        <v>-0.94655637028134842</v>
+        <v>-0.52425469205670838</v>
       </c>
       <c r="F69" s="0">
-        <v>0.055140178393646933</v>
+        <v>0.078341494188964939</v>
       </c>
       <c r="G69" s="0">
-        <v>-1.4646839884962213</v>
+        <v>-1.1366923131280677</v>
       </c>
     </row>
     <row r="70">
@@ -1706,22 +1706,22 @@
         <v>34</v>
       </c>
       <c r="B70" s="0">
-        <v>-0.31879582893217212</v>
+        <v>-0.27894635031565063</v>
       </c>
       <c r="C70" s="0">
-        <v>0.44452415187896349</v>
+        <v>0.51395863289409283</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.43465753686582403</v>
+        <v>-0.49782811408537653</v>
       </c>
       <c r="E70" s="0">
-        <v>-0.90931317935145894</v>
+        <v>-0.48865987413218431</v>
       </c>
       <c r="F70" s="0">
-        <v>-0.026562652916285748</v>
+        <v>0.0067294363476329971</v>
       </c>
       <c r="G70" s="0">
-        <v>-1.4294143083747142</v>
+        <v>-1.1032233305400296</v>
       </c>
     </row>
     <row r="71">
@@ -1729,22 +1729,22 @@
         <v>34.5</v>
       </c>
       <c r="B71" s="0">
-        <v>-0.34631216273733179</v>
+        <v>-0.30302314239516537</v>
       </c>
       <c r="C71" s="0">
-        <v>0.54066390106691919</v>
+        <v>0.59808091343355407</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.50406447609534921</v>
+        <v>-0.55771828220640873</v>
       </c>
       <c r="E71" s="0">
-        <v>-0.85383658262592466</v>
+        <v>-0.43712930028371461</v>
       </c>
       <c r="F71" s="0">
-        <v>-0.097149803914053048</v>
+        <v>-0.05450817556202097</v>
       </c>
       <c r="G71" s="0">
-        <v>-1.375638491349761</v>
+        <v>-1.0535162339737714</v>
       </c>
     </row>
     <row r="72">
@@ -1752,22 +1752,22 @@
         <v>35</v>
       </c>
       <c r="B72" s="0">
-        <v>-0.34918772577025048</v>
+        <v>-0.30553926004896925</v>
       </c>
       <c r="C72" s="0">
-        <v>0.64062254820284092</v>
+        <v>0.68554472967748559</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.55788475970065798</v>
+        <v>-0.60324524669448609</v>
       </c>
       <c r="E72" s="0">
-        <v>-0.78348356108615258</v>
+        <v>-0.37279179111842881</v>
       </c>
       <c r="F72" s="0">
-        <v>-0.15249067218402901</v>
+        <v>-0.10175000209555427</v>
       </c>
       <c r="G72" s="0">
-        <v>-1.3066200427236809</v>
+        <v>-0.99059281816802081</v>
       </c>
     </row>
     <row r="73">
@@ -1775,22 +1775,22 @@
         <v>35.5</v>
       </c>
       <c r="B73" s="0">
-        <v>-0.32724372944910457</v>
+        <v>-0.28633826326796658</v>
       </c>
       <c r="C73" s="0">
-        <v>0.73818514874965668</v>
+        <v>0.77091200515594938</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.59299506217024722</v>
+        <v>-0.63174294881950344</v>
       </c>
       <c r="E73" s="0">
-        <v>-0.70246345295207202</v>
+        <v>-0.2995155212521986</v>
       </c>
       <c r="F73" s="0">
-        <v>-0.18935327866758628</v>
+        <v>-0.13220529675705986</v>
       </c>
       <c r="G73" s="0">
-        <v>-1.2265045455680139</v>
+        <v>-0.91824957408017016</v>
       </c>
     </row>
     <row r="74">
@@ -1798,22 +1798,22 @@
         <v>36</v>
       </c>
       <c r="B74" s="0">
-        <v>-0.2818445451811239</v>
+        <v>-0.24661397703348348</v>
       </c>
       <c r="C74" s="0">
-        <v>0.82728573274214201</v>
+        <v>0.84887501614937411</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.60735700301196616</v>
+        <v>-0.64154318422909418</v>
       </c>
       <c r="E74" s="0">
-        <v>-0.61560856195319102</v>
+        <v>-0.22169287939426829</v>
       </c>
       <c r="F74" s="0">
-        <v>-0.20558229643497997</v>
+        <v>-0.14407116290542532</v>
       </c>
       <c r="G74" s="0">
-        <v>-1.1400916853976946</v>
+        <v>-0.84084504894551426</v>
       </c>
     </row>
     <row r="75">
@@ -1821,22 +1821,22 @@
         <v>36.5</v>
       </c>
       <c r="B75" s="0">
-        <v>-0.21581287435671587</v>
+        <v>-0.18883626506212647</v>
       </c>
       <c r="C75" s="0">
-        <v>0.90238445741930962</v>
+        <v>0.91458640024189575</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.60013548278097018</v>
+        <v>-0.63207267237029408</v>
       </c>
       <c r="E75" s="0">
-        <v>-0.52811241858946745</v>
+        <v>-0.14399798159663091</v>
       </c>
       <c r="F75" s="0">
-        <v>-0.20022554918328525</v>
+        <v>-0.13664047600668053</v>
       </c>
       <c r="G75" s="0">
-        <v>-1.0525727660350457</v>
+        <v>-0.76305656810035627</v>
       </c>
     </row>
     <row r="76">
@@ -1844,22 +1844,22 @@
         <v>37</v>
       </c>
       <c r="B76" s="0">
-        <v>-0.13325424644854195</v>
+        <v>-0.11659746564247431</v>
       </c>
       <c r="C76" s="0">
-        <v>0.95881204781549512</v>
+        <v>0.96396054183855806</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.57175937811569766</v>
+        <v>-0.6038958650129822</v>
       </c>
       <c r="E76" s="0">
-        <v>-0.44524488007145235</v>
+        <v>-0.071126016877711695</v>
       </c>
       <c r="F76" s="0">
-        <v>-0.17360188927877185</v>
+        <v>-0.11035423494263899</v>
       </c>
       <c r="G76" s="0">
-        <v>-0.96924326254468585</v>
+        <v>-0.68961601261480798</v>
       </c>
     </row>
     <row r="77">
@@ -1867,22 +1867,22 @@
         <v>37.5</v>
       </c>
       <c r="B77" s="0">
-        <v>-0.039301757073716345</v>
+        <v>-0.034389037439501904</v>
       </c>
       <c r="C77" s="0">
-        <v>0.99306010966245639</v>
+        <v>0.99392759595464919</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.52391894063995281</v>
+        <v>-0.55869917679531045</v>
       </c>
       <c r="E77" s="0">
-        <v>-0.37205515566370928</v>
+        <v>-0.0075251653809819269</v>
       </c>
       <c r="F77" s="0">
-        <v>-0.12730450643027458</v>
+        <v>-0.066793450246149549</v>
       </c>
       <c r="G77" s="0">
-        <v>-0.89520183707036316</v>
+        <v>-0.62503595944259493</v>
       </c>
     </row>
     <row r="78">
@@ -1890,22 +1890,22 @@
         <v>38</v>
       </c>
       <c r="B78" s="0">
-        <v>0.060203083029921528</v>
+        <v>0.052677697651181243</v>
       </c>
       <c r="C78" s="0">
-        <v>1.0029992643523411</v>
+        <v>1.0026243563082984</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.4594959659630618</v>
+        <v>-0.49921408585325872</v>
       </c>
       <c r="E78" s="0">
-        <v>-0.31307568324860013</v>
+        <v>0.042866677177627134</v>
       </c>
       <c r="F78" s="0">
-        <v>-0.064135459246319568</v>
+        <v>-0.0086075506339529304</v>
       </c>
       <c r="G78" s="0">
-        <v>-0.83504912180675583</v>
+        <v>-0.57333907019557839</v>
       </c>
     </row>
     <row r="79">
@@ -1913,22 +1913,22 @@
         <v>38.5</v>
       </c>
       <c r="B79" s="0">
-        <v>0.15907354484858843</v>
+        <v>0.13918935174251479</v>
       </c>
       <c r="C79" s="0">
-        <v>0.98801154338604591</v>
+        <v>0.98951010046279009</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.3824250986096871</v>
+        <v>-0.42907886016751384</v>
       </c>
       <c r="E79" s="0">
-        <v>-0.27204144150034476</v>
+        <v>0.076866858625439363</v>
       </c>
       <c r="F79" s="0">
-        <v>0.012030432555745971</v>
+        <v>0.060621272231575409</v>
       </c>
       <c r="G79" s="0">
-        <v>-0.79260132780421932</v>
+        <v>-0.53780502372607675</v>
       </c>
     </row>
     <row r="80">
@@ -1936,22 +1936,22 @@
         <v>39</v>
       </c>
       <c r="B80" s="0">
-        <v>0.25116234193769937</v>
+        <v>0.21976704919548687</v>
       </c>
       <c r="C80" s="0">
-        <v>0.9490288106614081</v>
+        <v>0.95540020932873193</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.29748752540453</v>
+        <v>-0.35264151086046369</v>
       </c>
       <c r="E80" s="0">
-        <v>-0.25164068852969651</v>
+        <v>0.092260160500560129</v>
       </c>
       <c r="F80" s="0">
-        <v>0.096451192081688272</v>
+        <v>0.13657530047283983</v>
       </c>
       <c r="G80" s="0">
-        <v>-0.77063527789722475</v>
+        <v>-0.52075039171556869</v>
       </c>
     </row>
     <row r="81">
@@ -1959,22 +1959,22 @@
         <v>39.5</v>
       </c>
       <c r="B81" s="0">
-        <v>0.33074383891909376</v>
+        <v>0.28940085905420698</v>
       </c>
       <c r="C81" s="0">
-        <v>0.88847482368944797</v>
+        <v>0.90241547072826689</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.21004187791992224</v>
+        <v>-0.27470999321179873</v>
       </c>
       <c r="E81" s="0">
-        <v>-0.25331418554910129</v>
+        <v>0.087963293409094881</v>
       </c>
       <c r="F81" s="0">
-        <v>0.18378783414897415</v>
+        <v>0.21445385092374358</v>
       </c>
       <c r="G81" s="0">
-        <v>-0.77068265439149675</v>
+        <v>-0.52335746260902216</v>
       </c>
     </row>
     <row r="82">
@@ -1982,22 +1982,22 @@
         <v>40</v>
       </c>
       <c r="B82" s="0">
-        <v>0.39287004375718526</v>
+        <v>0.34376128828753705</v>
       </c>
       <c r="C82" s="0">
-        <v>0.81011453609161244</v>
+        <v>0.83385021908016077</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.12570160449233869</v>
+        <v>-0.20025973711452763</v>
       </c>
       <c r="E82" s="0">
-        <v>-0.2771204994938159</v>
+        <v>0.064126987748775233</v>
       </c>
       <c r="F82" s="0">
-        <v>0.26842927212459777</v>
+        <v>0.28927030844076596</v>
       </c>
       <c r="G82" s="0">
-        <v>-0.79289180927049341</v>
+        <v>-0.54556778990375532</v>
       </c>
     </row>
     <row r="83">
@@ -2005,22 +2005,22 @@
         <v>40.5</v>
       </c>
       <c r="B83" s="0">
-        <v>0.43367824993852444</v>
+        <v>0.37946846869620887</v>
       </c>
       <c r="C83" s="0">
-        <v>0.71882001101884963</v>
+        <v>0.75396750964149339</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.049973623779025478</v>
+        <v>-0.13411332922175642</v>
       </c>
       <c r="E83" s="0">
-        <v>-0.32168454346135822</v>
+        <v>0.022162262087340193</v>
       </c>
       <c r="F83" s="0">
-        <v>0.34485612379025243</v>
+        <v>0.35617738368738949</v>
       </c>
       <c r="G83" s="0">
-        <v>-0.8359748087412211</v>
+        <v>-0.58605460617924221</v>
       </c>
     </row>
     <row r="84">
@@ -2028,22 +2028,22 @@
         <v>41</v>
       </c>
       <c r="B84" s="0">
-        <v>0.45063120085409031</v>
+        <v>0.39430230074732897</v>
       </c>
       <c r="C84" s="0">
-        <v>0.62026749986233765</v>
+        <v>0.66773406237954547</v>
       </c>
       <c r="D84" s="0">
-        <v>0.01212016097377662</v>
+        <v>-0.080612445023590495</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.38424426133205436</v>
+        <v>-0.035319564439704292</v>
       </c>
       <c r="F84" s="0">
-        <v>0.40802034201822868</v>
+        <v>0.41079853330409188</v>
       </c>
       <c r="G84" s="0">
-        <v>-0.89725444214304328</v>
+        <v>-0.64228439900137846</v>
       </c>
     </row>
     <row r="85">
@@ -2051,22 +2051,22 @@
         <v>41.5</v>
       </c>
       <c r="B85" s="0">
-        <v>0.44267484412623631</v>
+        <v>0.38734048861045672</v>
       </c>
       <c r="C85" s="0">
-        <v>0.52058452043445769</v>
+        <v>0.58051145538015048</v>
       </c>
       <c r="D85" s="0">
-        <v>0.056409381887425156</v>
+        <v>-0.043307341856029608</v>
       </c>
       <c r="E85" s="0">
-        <v>-0.46080497422726097</v>
+        <v>-0.10465807827356335</v>
       </c>
       <c r="F85" s="0">
-        <v>0.45371014190583914</v>
+        <v>0.44953833023552081</v>
       </c>
       <c r="G85" s="0">
-        <v>-0.97281936337350805</v>
+        <v>-0.71067109143159035</v>
       </c>
     </row>
     <row r="86">
@@ -2074,22 +2074,22 @@
         <v>42</v>
       </c>
       <c r="B86" s="0">
-        <v>0.41030386748031283</v>
+        <v>0.35901588404527368</v>
       </c>
       <c r="C86" s="0">
-        <v>0.42596887758937063</v>
+        <v>0.49772276789069925</v>
       </c>
       <c r="D86" s="0">
-        <v>0.079894043196597667</v>
+        <v>-0.024693001481546475</v>
       </c>
       <c r="E86" s="0">
-        <v>-0.54640094220647206</v>
+        <v>-0.18138255709807086</v>
       </c>
       <c r="F86" s="0">
-        <v>0.47886424195934563</v>
+        <v>0.46984201527576042</v>
       </c>
       <c r="G86" s="0">
-        <v>-1.0577843551179833</v>
+        <v>-0.78681625215739814</v>
       </c>
     </row>
     <row r="87">
@@ -2097,22 +2097,22 @@
         <v>42.5</v>
       </c>
       <c r="B87" s="0">
-        <v>0.355530941457886</v>
+        <v>0.31108957377565016</v>
       </c>
       <c r="C87" s="0">
-        <v>0.34230331373576506</v>
+        <v>0.42451539951879436</v>
       </c>
       <c r="D87" s="0">
-        <v>0.080977592254002542</v>
+        <v>-0.026021146542864547</v>
       </c>
       <c r="E87" s="0">
-        <v>-0.63544875473817086</v>
+        <v>-0.26052321092020964</v>
       </c>
       <c r="F87" s="0">
-        <v>0.48179940451760067</v>
+        <v>0.47037676737540185</v>
       </c>
       <c r="G87" s="0">
-        <v>-1.1466376160481841</v>
+        <v>-0.86581691374511449</v>
       </c>
     </row>
     <row r="88">
@@ -2120,22 +2120,22 @@
         <v>43</v>
       </c>
       <c r="B88" s="0">
-        <v>0.2817615813106743</v>
+        <v>0.24654138364683992</v>
       </c>
       <c r="C88" s="0">
-        <v>0.27478974840648496</v>
+        <v>0.36544102985567428</v>
       </c>
       <c r="D88" s="0">
-        <v>0.059582198419019995</v>
+        <v>-0.047211520927896891</v>
       </c>
       <c r="E88" s="0">
-        <v>-0.72215971659179978</v>
+        <v>-0.33696743371793841</v>
       </c>
       <c r="F88" s="0">
-        <v>0.46232361544086076</v>
+        <v>0.45111561884637963</v>
       </c>
       <c r="G88" s="0">
-        <v>-1.2336415652110413</v>
+        <v>-0.94261203155201501</v>
       </c>
     </row>
     <row r="89">
@@ -2143,22 +2143,22 @@
         <v>43.5</v>
       </c>
       <c r="B89" s="0">
-        <v>0.19358240855654191</v>
+        <v>0.16938460748697404</v>
       </c>
       <c r="C89" s="0">
-        <v>0.22762584809706535</v>
+        <v>0.32417261708493211</v>
       </c>
       <c r="D89" s="0">
-        <v>0.017130738696935967</v>
+        <v>-0.086873286083097565</v>
       </c>
       <c r="E89" s="0">
-        <v>-0.80096467144351369</v>
+        <v>-0.40582448545810207</v>
       </c>
       <c r="F89" s="0">
-        <v>0.42172374974714605</v>
+        <v>0.41331808059464997</v>
       </c>
       <c r="G89" s="0">
-        <v>-1.3132437344731425</v>
+        <v>-1.0123331418151789</v>
       </c>
     </row>
     <row r="90">
@@ -2166,22 +2166,22 @@
         <v>44</v>
       </c>
       <c r="B90" s="0">
-        <v>0.096475977068458132</v>
+        <v>0.084416479934900729</v>
       </c>
       <c r="C90" s="0">
-        <v>0.20374403569410707</v>
+        <v>0.30327603123234365</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.043596721040946675</v>
+        <v>-0.14243075147683287</v>
       </c>
       <c r="E90" s="0">
-        <v>-0.86690210884486629</v>
+        <v>-0.46276041506086113</v>
       </c>
       <c r="F90" s="0">
-        <v>0.36263639081455085</v>
+        <v>0.35941555668713954</v>
       </c>
       <c r="G90" s="0">
-        <v>-1.3804545495462284</v>
+        <v>-1.0706264796364409</v>
       </c>
     </row>
     <row r="91">
@@ -2189,22 +2189,22 @@
         <v>44.5</v>
       </c>
       <c r="B91" s="0">
-        <v>-0.0035201055710055856</v>
+        <v>-0.0030800923746300141</v>
       </c>
       <c r="C91" s="0">
-        <v>0.20462916662314745</v>
+        <v>0.30405052079525396</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.11870341597200257</v>
+        <v>-0.21033256897503677</v>
       </c>
       <c r="E91" s="0">
-        <v>-0.91593165680809363</v>
+        <v>-0.50427251492719427</v>
       </c>
       <c r="F91" s="0">
-        <v>0.28882643331595204</v>
+        <v>0.29282019845202278</v>
       </c>
       <c r="G91" s="0">
-        <v>-1.4311591333722367</v>
+        <v>-1.1139216192652515</v>
       </c>
     </row>
     <row r="92">
@@ -2212,22 +2212,22 @@
         <v>45</v>
       </c>
       <c r="B92" s="0">
-        <v>-0.10018856726648291</v>
+        <v>-0.087664996358172667</v>
       </c>
       <c r="C92" s="0">
-        <v>0.23022620773008076</v>
+        <v>0.32644793176382059</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.20347535087865226</v>
+        <v>-0.28631540550564188</v>
       </c>
       <c r="E92" s="0">
-        <v>-0.94515468148937665</v>
+        <v>-0.52788610262224911</v>
       </c>
       <c r="F92" s="0">
-        <v>0.20490524508474081</v>
+        <v>0.21768068714660058</v>
       </c>
       <c r="G92" s="0">
-        <v>-1.4623457236330608</v>
+        <v>-1.1396321615225204</v>
       </c>
     </row>
     <row r="93">
@@ -2235,22 +2235,22 @@
         <v>45.5</v>
       </c>
       <c r="B93" s="0">
-        <v>-0.18751903127583447</v>
+        <v>-0.16407915236635529</v>
       </c>
       <c r="C93" s="0">
-        <v>0.27894365897613171</v>
+        <v>0.36907570160411518</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.29270498049358662</v>
+        <v>-0.36569349261611517</v>
       </c>
       <c r="E93" s="0">
-        <v>-0.95294188188909179</v>
+        <v>-0.53227007107779944</v>
       </c>
       <c r="F93" s="0">
-        <v>0.11601846041381977</v>
+        <v>0.13860800637979342</v>
       </c>
       <c r="G93" s="0">
-        <v>-1.4722474596950794</v>
+        <v>-1.1462835575152779</v>
       </c>
     </row>
     <row r="94">
@@ -2258,22 +2258,22 @@
         <v>46</v>
       </c>
       <c r="B94" s="0">
-        <v>-0.2600817123251874</v>
+        <v>-0.2275714982845391</v>
       </c>
       <c r="C94" s="0">
-        <v>0.34775250520196144</v>
+        <v>0.42928344205171615</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.38101442334726376</v>
+        <v>-0.4436514523257753</v>
       </c>
       <c r="E94" s="0">
-        <v>-0.93897796605627393</v>
+        <v>-0.51727678777935837</v>
       </c>
       <c r="F94" s="0">
-        <v>0.027526733353836597</v>
+        <v>0.060390716816581508</v>
       </c>
       <c r="G94" s="0">
-        <v>-1.4604031523543595</v>
+        <v>-1.133569783644448</v>
       </c>
     </row>
     <row r="95">
@@ -2281,22 +2281,22 @@
         <v>46.5</v>
       </c>
       <c r="B95" s="0">
-        <v>-0.31336501435852715</v>
+        <v>-0.27419438756371139</v>
       </c>
       <c r="C95" s="0">
-        <v>0.43237454561947852</v>
+        <v>0.50332772741704357</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.46316342966199486</v>
+        <v>-0.51552497152810961</v>
       </c>
       <c r="E95" s="0">
-        <v>-0.90423572289491516</v>
+        <v>-0.48391555381825452</v>
       </c>
       <c r="F95" s="0">
-        <v>-0.05530452744340944</v>
+        <v>-0.012285088618781359</v>
       </c>
       <c r="G95" s="0">
-        <v>-1.4276459044430942</v>
+        <v>-1.1023440166079304</v>
       </c>
     </row>
     <row r="96">
@@ -2304,22 +2304,22 @@
         <v>47</v>
       </c>
       <c r="B96" s="0">
-        <v>-0.34405603972890009</v>
+        <v>-0.30104903476278772</v>
       </c>
       <c r="C96" s="0">
-        <v>0.52754839161571387</v>
+        <v>0.58660484266374946</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.53433343327987859</v>
+        <v>-0.5770592391075049</v>
       </c>
       <c r="E96" s="0">
-        <v>-0.85088980919781232</v>
+        <v>-0.4342687774179943</v>
       </c>
       <c r="F96" s="0">
-        <v>-0.12759558948959382</v>
+        <v>-0.075099528285516928</v>
       </c>
       <c r="G96" s="0">
-        <v>-1.3760282133448176</v>
+        <v>-1.0545496179314326</v>
       </c>
     </row>
     <row r="97">
@@ -2327,22 +2327,22 @@
         <v>47.5</v>
       </c>
       <c r="B97" s="0">
-        <v>-0.35024656912834212</v>
+        <v>-0.30646574798729953</v>
       </c>
       <c r="C97" s="0">
-        <v>0.62735659441365355</v>
+        <v>0.67393702011194667</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.59038135979206363</v>
+        <v>-0.62463785388849102</v>
       </c>
       <c r="E97" s="0">
-        <v>-0.782177943524902</v>
+        <v>-0.37135870711895136</v>
       </c>
       <c r="F97" s="0">
-        <v>-0.18511469092259444</v>
+        <v>-0.12433699850030773</v>
       </c>
       <c r="G97" s="0">
-        <v>-1.3086908970133009</v>
+        <v>-0.99309787975780384</v>
       </c>
     </row>
     <row r="98">
@@ -2350,22 +2350,22 @@
         <v>48</v>
       </c>
       <c r="B98" s="0">
-        <v>-0.33155170542213785</v>
+        <v>-0.2901077422443708</v>
       </c>
       <c r="C98" s="0">
-        <v>0.72559356337649583</v>
+        <v>0.75989436795443366</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.62805701822200111</v>
+        <v>-0.65547586818196546</v>
       </c>
       <c r="E98" s="0">
-        <v>-0.70221572496312312</v>
+        <v>-0.29897161245088755</v>
       </c>
       <c r="F98" s="0">
-        <v>-0.22450464525616659</v>
+        <v>-0.15709034377066244</v>
       </c>
       <c r="G98" s="0">
-        <v>-1.2296823733237239</v>
+        <v>-0.92169908007933166</v>
       </c>
     </row>
     <row r="99">
@@ -2373,22 +2373,22 @@
         <v>48.5</v>
       </c>
       <c r="B99" s="0">
-        <v>-0.28913380468843813</v>
+        <v>-0.25299207910238358</v>
       </c>
       <c r="C99" s="0">
-        <v>0.81615139957715821</v>
+        <v>0.83913247463001328</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.64517738371834943</v>
+        <v>-0.6677707907587529</v>
       </c>
       <c r="E99" s="0">
-        <v>-0.61577127623104799</v>
+        <v>-0.2214462604715311</v>
       </c>
       <c r="F99" s="0">
-        <v>-0.24346621050110204</v>
+        <v>-0.17142351011211845</v>
       </c>
       <c r="G99" s="0">
-        <v>-1.1437349915350883</v>
+        <v>-0.8446539234870134</v>
       </c>
     </row>
     <row r="100">
@@ -2396,22 +2396,22 @@
         <v>49</v>
       </c>
       <c r="B100" s="0">
-        <v>-0.22563020654710098</v>
+        <v>-0.19742643072871358</v>
       </c>
       <c r="C100" s="0">
-        <v>0.89339965537043531</v>
+        <v>0.90672469844913073</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.64075078643363059</v>
+        <v>-0.66080551727500514</v>
       </c>
       <c r="E100" s="0">
-        <v>-0.52800697471356106</v>
+        <v>-0.14343433370735864</v>
       </c>
       <c r="F100" s="0">
-        <v>-0.24089071516348659</v>
+        <v>-0.16648560477228802</v>
       </c>
       <c r="G100" s="0">
-        <v>-1.0560061524722819</v>
+        <v>-0.76661347613878772</v>
       </c>
     </row>
     <row r="101">
@@ -2419,22 +2419,22 @@
         <v>49.5</v>
       </c>
       <c r="B101" s="0">
-        <v>-0.14498925715587552</v>
+        <v>-0.1268656000113913</v>
       </c>
       <c r="C101" s="0">
-        <v>0.95253540835694772</v>
+        <v>0.95846848231232906</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.61504433186619012</v>
+        <v>-0.63499770243868692</v>
       </c>
       <c r="E101" s="0">
-        <v>-0.44419719161367344</v>
+        <v>-0.06964175302628281</v>
       </c>
       <c r="F101" s="0">
-        <v>-0.21693490528361223</v>
+        <v>-0.14257010774806789</v>
       </c>
       <c r="G101" s="0">
-        <v>-0.9717935402617176</v>
+        <v>-0.69231710250980394</v>
       </c>
     </row>
     <row r="102">
@@ -2442,22 +2442,22 @@
         <v>50</v>
       </c>
       <c r="B102" s="0">
-        <v>-0.052224820169817054</v>
+        <v>-0.045696717648590152</v>
       </c>
       <c r="C102" s="0">
-        <v>0.98988188383535924</v>
+        <v>0.99114664835593913</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.56958886685285637</v>
+        <v>-0.59189118869824042</v>
       </c>
       <c r="E102" s="0">
-        <v>-0.36943282308120351</v>
+        <v>-0.0045613903284654755</v>
       </c>
       <c r="F102" s="0">
-        <v>-0.17303202706180795</v>
+        <v>-0.10111425171948012</v>
       </c>
       <c r="G102" s="0">
-        <v>-0.89623561652313666</v>
+        <v>-0.62631947942903576</v>
       </c>
     </row>
     <row r="103">
@@ -2465,22 +2465,22 @@
         <v>50.5</v>
       </c>
       <c r="B103" s="0">
-        <v>0.046895461016530304</v>
+        <v>0.041033528389463794</v>
       </c>
       <c r="C103" s="0">
-        <v>1.0031170588451366</v>
+        <v>1.0027274264894943</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.50711743131428266</v>
+        <v>-0.53408677712911179</v>
       </c>
       <c r="E103" s="0">
-        <v>-0.30832522303992554</v>
+        <v>0.047790859238952474</v>
       </c>
       <c r="F103" s="0">
-        <v>-0.1118348107863989</v>
+        <v>-0.044635377410377985</v>
       </c>
       <c r="G103" s="0">
-        <v>-0.83401037818677481</v>
+        <v>-0.57271932135218717</v>
       </c>
     </row>
     <row r="104">
@@ -2488,22 +2488,22 @@
         <v>51</v>
       </c>
       <c r="B104" s="0">
-        <v>0.1462087674002796</v>
+        <v>0.12793267147524445</v>
       </c>
       <c r="C104" s="0">
-        <v>0.99141803430770015</v>
+        <v>0.99249078001923741</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.43143534399452077</v>
+        <v>-0.46511184093552344</v>
       </c>
       <c r="E104" s="0">
-        <v>-0.26472379863663126</v>
+        <v>0.084123391020259175</v>
       </c>
       <c r="F104" s="0">
-        <v>-0.037088271078940804</v>
+        <v>0.023396584800327788</v>
       </c>
       <c r="G104" s="0">
-        <v>-0.78904711544966244</v>
+        <v>-0.53490385611643132</v>
       </c>
     </row>
     <row r="105">
@@ -2511,22 +2511,22 @@
         <v>51.5</v>
       </c>
       <c r="B105" s="0">
-        <v>0.23954027860667182</v>
+        <v>0.20959774378083762</v>
       </c>
       <c r="C105" s="0">
-        <v>0.95551219890548333</v>
+        <v>0.96107317404229764</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.34722285061773817</v>
+        <v>-0.38923102579129776</v>
       </c>
       <c r="E105" s="0">
-        <v>-0.24146292774800157</v>
+        <v>0.10208537180226925</v>
       </c>
       <c r="F105" s="0">
-        <v>0.046566876363091925</v>
+        <v>0.098748411504622241</v>
       </c>
       <c r="G105" s="0">
-        <v>-0.7642674326609622</v>
+        <v>-0.51532420997828732</v>
       </c>
     </row>
     <row r="106">
@@ -2534,22 +2534,22 @@
         <v>52</v>
       </c>
       <c r="B106" s="0">
-        <v>0.32108709331272178</v>
+        <v>0.28095120664863138</v>
       </c>
       <c r="C106" s="0">
-        <v>0.89763200357670836</v>
+        <v>0.91042800312961947</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.25977468397800263</v>
+        <v>-0.31120357686685923</v>
       </c>
       <c r="E106" s="0">
-        <v>-0.24015492564152791</v>
+        <v>0.10043765197359483</v>
       </c>
       <c r="F106" s="0">
-        <v>0.13385574180103355</v>
+        <v>0.1766689360545885</v>
       </c>
       <c r="G106" s="0">
-        <v>-0.76137299441919726</v>
+        <v>-0.5153175184259533</v>
       </c>
     </row>
     <row r="107">
@@ -2557,22 +2557,22 @@
         <v>52.5</v>
       </c>
       <c r="B107" s="0">
-        <v>0.38577902554558585</v>
+        <v>0.33755664735238744</v>
       </c>
       <c r="C107" s="0">
-        <v>0.82137615852874812</v>
+        <v>0.84370413871265426</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.1746851107711038</v>
+        <v>-0.23599673795066492</v>
       </c>
       <c r="E107" s="0">
-        <v>-0.26104636331183745</v>
+        <v>0.079163498023347739</v>
       </c>
       <c r="F107" s="0">
-        <v>0.21918669362166895</v>
+        <v>0.25218031192171264</v>
       </c>
       <c r="G107" s="0">
-        <v>-0.78069808636456606</v>
+        <v>-0.53499147359708532</v>
       </c>
     </row>
     <row r="108">
@@ -2580,22 +2580,22 @@
         <v>53</v>
       </c>
       <c r="B108" s="0">
-        <v>0.4295938442893063</v>
+        <v>0.37589461375314281</v>
       </c>
       <c r="C108" s="0">
-        <v>0.73148588286750138</v>
+        <v>0.76505014750906342</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.097492296495914288</v>
+        <v>-0.16846922934942685</v>
       </c>
       <c r="E108" s="0">
-        <v>-0.30295475338437416</v>
+        <v>0.039505644482489111</v>
       </c>
       <c r="F108" s="0">
-        <v>0.29700988203047007</v>
+        <v>0.32039983602674349</v>
       </c>
       <c r="G108" s="0">
-        <v>-0.82114461541537487</v>
+        <v>-0.57318563331272676</v>
       </c>
     </row>
     <row r="109">
@@ -2603,22 +2603,22 @@
         <v>53.5</v>
       </c>
       <c r="B109" s="0">
-        <v>0.44980735632802449</v>
+        <v>0.39358143678702123</v>
       </c>
       <c r="C109" s="0">
-        <v>0.63355011855710963</v>
+        <v>0.67935635373747072</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.033302252281423167</v>
+        <v>-0.11304393194586695</v>
       </c>
       <c r="E109" s="0">
-        <v>-0.36330073288686787</v>
+        <v>-0.016081181892691324</v>
       </c>
       <c r="F109" s="0">
-        <v>0.36219510000696425</v>
+        <v>0.37687126027958273</v>
       </c>
       <c r="G109" s="0">
-        <v>-0.88021468513417633</v>
+        <v>-0.62752039099273083</v>
       </c>
     </row>
     <row r="110">
@@ -2626,22 +2626,22 @@
         <v>54</v>
       </c>
       <c r="B110" s="0">
-        <v>0.44516278338572751</v>
+        <v>0.38951743546251139</v>
       </c>
       <c r="C110" s="0">
-        <v>0.53365803707822723</v>
+        <v>0.59195078244344856</v>
       </c>
       <c r="D110" s="0">
-        <v>0.013580063698299803</v>
+        <v>-0.073394101318438099</v>
       </c>
       <c r="E110" s="0">
-        <v>-0.43824618105467916</v>
+        <v>-0.084068157592281423</v>
       </c>
       <c r="F110" s="0">
-        <v>0.41039982339361614</v>
+        <v>0.41787922644536019</v>
       </c>
       <c r="G110" s="0">
-        <v>-0.95415006803493563</v>
+        <v>-0.69453822059369008</v>
       </c>
     </row>
     <row r="111">
@@ -2649,22 +2649,22 @@
         <v>54.5</v>
       </c>
       <c r="B111" s="0">
-        <v>0.4159489025123439</v>
+        <v>0.36395528969830071</v>
       </c>
       <c r="C111" s="0">
-        <v>0.43802044423777692</v>
+        <v>0.5082678887080545</v>
       </c>
       <c r="D111" s="0">
-        <v>0.039978085964305465</v>
+        <v>-0.052171519221067671</v>
       </c>
       <c r="E111" s="0">
-        <v>-0.52293977174867345</v>
+        <v>-0.1600786132361226</v>
       </c>
       <c r="F111" s="0">
-        <v>0.43839234935707266</v>
+        <v>0.44071736486786611</v>
       </c>
       <c r="G111" s="0">
-        <v>-1.0381776311525388</v>
+        <v>-0.7699323427957917</v>
       </c>
     </row>
     <row r="112">
@@ -2672,22 +2672,22 @@
         <v>55</v>
       </c>
       <c r="B112" s="0">
-        <v>0.36398209132544806</v>
+        <v>0.31848432990976688</v>
       </c>
       <c r="C112" s="0">
-        <v>0.35258362234542467</v>
+        <v>0.43351066955224626</v>
       </c>
       <c r="D112" s="0">
-        <v>0.044091617408919898</v>
+        <v>-0.050805919697837376</v>
       </c>
       <c r="E112" s="0">
-        <v>-0.61185754595113206</v>
+        <v>-0.23918962737015934</v>
       </c>
       <c r="F112" s="0">
-        <v>0.44429374579621222</v>
+        <v>0.44388196831475862</v>
       </c>
       <c r="G112" s="0">
-        <v>-1.1268453266667096</v>
+        <v>-0.84884632286298978</v>
       </c>
     </row>
     <row r="113">
@@ -2695,22 +2695,22 @@
         <v>55.5</v>
       </c>
       <c r="B113" s="0">
-        <v>0.29249339444748157</v>
+        <v>0.25593172014154619</v>
       </c>
       <c r="C113" s="0">
-        <v>0.28265961917991489</v>
+        <v>0.37232716678242522</v>
       </c>
       <c r="D113" s="0">
-        <v>0.025631776646683438</v>
+        <v>-0.069400425566382568</v>
       </c>
       <c r="E113" s="0">
-        <v>-0.6992089202343964</v>
+        <v>-0.3162836390661421</v>
       </c>
       <c r="F113" s="0">
-        <v>0.42770904918634822</v>
+        <v>0.42717050568706982</v>
       </c>
       <c r="G113" s="0">
-        <v>-1.2144177348814476</v>
+        <v>-0.9262171357118818</v>
       </c>
     </row>
     <row r="114">
@@ -2718,22 +2718,22 @@
         <v>56</v>
       </c>
       <c r="B114" s="0">
-        <v>0.20592763280043991</v>
+        <v>0.18018667870038474</v>
       </c>
       <c r="C114" s="0">
-        <v>0.23259597058667339</v>
+        <v>0.32852147426333889</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.014176277668391961</v>
+        <v>-0.10673640480560374</v>
       </c>
       <c r="E114" s="0">
-        <v>-0.77936358067350753</v>
+        <v>-0.38641474213091392</v>
       </c>
       <c r="F114" s="0">
-        <v>0.38973335719013369</v>
+        <v>0.39167676079731945</v>
       </c>
       <c r="G114" s="0">
-        <v>-1.2952888702103016</v>
+        <v>-0.99712771002530265</v>
       </c>
     </row>
     <row r="115">
@@ -2741,22 +2741,22 @@
         <v>56.5</v>
       </c>
       <c r="B115" s="0">
-        <v>0.10966704616908325</v>
+        <v>0.095958665397947659</v>
       </c>
       <c r="C115" s="0">
-        <v>0.2055053917558865</v>
+        <v>0.30481721778640036</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.072719532383841573</v>
+        <v>-0.16038496833653881</v>
       </c>
       <c r="E115" s="0">
-        <v>-0.84724947824983143</v>
+        <v>-0.44515107699099055</v>
       </c>
       <c r="F115" s="0">
-        <v>0.33283815511978221</v>
+        <v>0.33968855182912217</v>
       </c>
       <c r="G115" s="0">
-        <v>-1.364368203763823</v>
+        <v>-1.0571354400952764</v>
       </c>
     </row>
     <row r="116">
@@ -2764,22 +2764,22 @@
         <v>57</v>
       </c>
       <c r="B116" s="0">
-        <v>0.0096966515995747099</v>
+        <v>0.0084845701496276821</v>
       </c>
       <c r="C116" s="0">
-        <v>0.20307224366816629</v>
+        <v>0.30268821320964517</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.14622678134944855</v>
+        <v>-0.2269064664808968</v>
       </c>
       <c r="E116" s="0">
-        <v>-0.89868082850027931</v>
+        <v>-0.48886059782363317</v>
       </c>
       <c r="F116" s="0">
-        <v>0.26066036334496334</v>
+        <v>0.27450537797190966</v>
       </c>
       <c r="G116" s="0">
-        <v>-1.4174046049340507</v>
+        <v>-1.1025501222623337</v>
       </c>
     </row>
     <row r="117">
@@ -2787,22 +2787,22 @@
         <v>57.5</v>
       </c>
       <c r="B117" s="0">
-        <v>-0.087767875972491055</v>
+        <v>-0.076796891475929871</v>
       </c>
       <c r="C117" s="0">
-        <v>0.22544780768684591</v>
+        <v>0.32226683172598986</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.23006413741831</v>
+        <v>-0.30210959710823088</v>
       </c>
       <c r="E117" s="0">
-        <v>-0.9305938261455452</v>
+        <v>-0.51492031768631297</v>
       </c>
       <c r="F117" s="0">
-        <v>0.17772552864510546</v>
+        <v>0.20019920162712795</v>
       </c>
       <c r="G117" s="0">
-        <v>-1.4512279428741646</v>
+        <v>-1.1306450656238098</v>
       </c>
     </row>
     <row r="118">
@@ -2810,22 +2810,22 @@
         <v>58</v>
       </c>
       <c r="B118" s="0">
-        <v>-0.17666666428445083</v>
+        <v>-0.15458333124889467</v>
       </c>
       <c r="C118" s="0">
-        <v>0.27124087961552706</v>
+        <v>0.36233576966358583</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.31905977087769105</v>
+        <v>-0.38134061009129194</v>
       </c>
       <c r="E118" s="0">
-        <v>-0.94118714934843939</v>
+        <v>-0.52184330256842837</v>
       </c>
       <c r="F118" s="0">
-        <v>0.089136313509829215</v>
+        <v>0.1213419361702434</v>
       </c>
       <c r="G118" s="0">
-        <v>-1.4639029623600162</v>
+        <v>-1.1397950675445678</v>
       </c>
     </row>
     <row r="119">
@@ -2833,22 +2833,22 @@
         <v>58.5</v>
       </c>
       <c r="B119" s="0">
-        <v>-0.25147241725335084</v>
+        <v>-0.2200383650966822</v>
       </c>
       <c r="C119" s="0">
-        <v>0.33760426803682381</v>
+        <v>0.42040373453222046</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.40783073359954869</v>
+        <v>-0.4597784339785459</v>
       </c>
       <c r="E119" s="0">
-        <v>-0.92997647229808211</v>
+        <v>-0.509327985938962</v>
       </c>
       <c r="F119" s="0">
-        <v>0.00025123427486369032</v>
+        <v>0.042720020680290627</v>
       </c>
       <c r="G119" s="0">
-        <v>-1.4548001006433064</v>
+        <v>-1.1295421850012315</v>
       </c>
     </row>
     <row r="120">
@@ -2856,22 +2856,22 @@
         <v>59</v>
       </c>
       <c r="B120" s="0">
-        <v>-0.30753407547536143</v>
+        <v>-0.26909231604094147</v>
       </c>
       <c r="C120" s="0">
-        <v>0.42041181888454826</v>
+        <v>0.49286034152397934</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.49109529990667472</v>
+        <v>-0.5327189239796094</v>
       </c>
       <c r="E120" s="0">
-        <v>-0.89777581441543608</v>
+        <v>-0.47823902668973906</v>
       </c>
       <c r="F120" s="0">
-        <v>-0.08362896308819126</v>
+        <v>-0.030947904947156629</v>
       </c>
       <c r="G120" s="0">
-        <v>-1.4245921538119612</v>
+        <v>-1.1005942268754869</v>
       </c>
     </row>
     <row r="121">
@@ -2879,22 +2879,22 @@
         <v>59.5</v>
       </c>
       <c r="B121" s="0">
-        <v>-0.34136599657246697</v>
+        <v>-0.29869524700090883</v>
       </c>
       <c r="C121" s="0">
-        <v>0.51451495971884365</v>
+        <v>0.5752005897539878</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.56396137450036343</v>
+        <v>-0.59583736418445754</v>
       </c>
       <c r="E121" s="0">
-        <v>-0.84661699818060776</v>
+        <v>-0.43052936726643998</v>
       </c>
       <c r="F121" s="0">
-        <v>-0.15755566766514076</v>
+        <v>-0.095278026780645675</v>
       </c>
       <c r="G121" s="0">
-        <v>-1.3751859272131588</v>
+        <v>-1.0547623918456639</v>
       </c>
     </row>
   </sheetData>
@@ -2911,8 +2911,8 @@
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.28515625" customWidth="true"/>
-    <col min="7" max="7" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2943,22 +2943,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0087797147475859733</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.18057632861368769</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0049990630929264562</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.18042929714268249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2966,22 +2966,22 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="0">
-        <v>0.19378248434212897</v>
+        <v>0.16955967379936285</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.049480791850904586</v>
+        <v>-0.043295692869541512</v>
       </c>
       <c r="D3" s="0">
-        <v>0.080302572162054692</v>
+        <v>0.074528031906825346</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.10496081019559031</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>0.069372909495564725</v>
+        <v>0.064969433287145925</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.11351168062718275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2989,22 +2989,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>0.17551651237807453</v>
+        <v>0.15357694833081523</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.095885107720840607</v>
+        <v>-0.08389946925573552</v>
       </c>
       <c r="D4" s="0">
-        <v>0.12145667769697181</v>
+        <v>0.11044257903406833</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.086311996008152675</v>
+        <v>-0.018295404906336452</v>
       </c>
       <c r="F4" s="0">
-        <v>0.11974167273800618</v>
+        <v>0.10812292069364474</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.08624592222440397</v>
+        <v>-0.016107267402606908</v>
       </c>
     </row>
     <row r="5">
@@ -3012,22 +3012,22 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14633777377476417</v>
+        <v>0.12804555205291865</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.13632775200466685</v>
+        <v>-0.11928678300408348</v>
       </c>
       <c r="D5" s="0">
-        <v>0.14243111462054175</v>
+        <v>0.12763804690859257</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.090135231980219499</v>
+        <v>-0.045043576806176606</v>
       </c>
       <c r="F5" s="0">
-        <v>0.14072813688867936</v>
+        <v>0.12616016858390006</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.089767215074609635</v>
+        <v>-0.042444027164021209</v>
       </c>
     </row>
     <row r="6">
@@ -3035,22 +3035,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10806046117362794</v>
+        <v>0.094552903526924456</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.1682941969615793</v>
+        <v>-0.14725742234138189</v>
       </c>
       <c r="D6" s="0">
-        <v>0.14322080830064857</v>
+        <v>0.12715432755467609</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.10854200967317423</v>
+        <v>-0.075409980630686185</v>
       </c>
       <c r="F6" s="0">
-        <v>0.14354342132896908</v>
+        <v>0.12752804362788284</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.10681824558704568</v>
+        <v>-0.07258322560843819</v>
       </c>
     </row>
     <row r="7">
@@ -3058,22 +3058,22 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="0">
-        <v>0.063064472479053738</v>
+        <v>0.055181413419172015</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.18979692387111724</v>
+        <v>-0.16607230838722759</v>
       </c>
       <c r="D7" s="0">
-        <v>0.12915566701212605</v>
+        <v>0.11336643675589039</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.131905193673934</v>
+        <v>-0.1049054407824063</v>
       </c>
       <c r="F7" s="0">
-        <v>0.13046236506953651</v>
+        <v>0.11481127873878946</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.13001630099108502</v>
+        <v>-0.1022614886064965</v>
       </c>
     </row>
     <row r="8">
@@ -3081,22 +3081,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014147440333540581</v>
+        <v>0.012379010291848009</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.19949899732081089</v>
+        <v>-0.17456162265570951</v>
       </c>
       <c r="D8" s="0">
-        <v>0.1028124099102887</v>
+        <v>0.088859915087621283</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.15463865230436225</v>
+        <v>-0.13016761486095174</v>
       </c>
       <c r="F8" s="0">
-        <v>0.10512674188583876</v>
+        <v>0.091274345066697432</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.15282346263657709</v>
+        <v>-0.12793684444665956</v>
       </c>
     </row>
     <row r="9">
@@ -3104,22 +3104,22 @@
         <v>3.5</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.035649211129898419</v>
+        <v>-0.031193059738661117</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.19679718937478738</v>
+        <v>-0.17219754070293897</v>
       </c>
       <c r="D9" s="0">
-        <v>0.067385434420707671</v>
+        <v>0.05654023249874289</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.17226737165163869</v>
+        <v>-0.14855906996368337</v>
       </c>
       <c r="F9" s="0">
-        <v>0.07045236535687957</v>
+        <v>0.059688727069524931</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.17090077819098135</v>
+        <v>-0.14696049840546632</v>
       </c>
     </row>
     <row r="10">
@@ -3127,22 +3127,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.083229367309428481</v>
+        <v>-0.072825696395749914</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.18185948536513633</v>
+        <v>-0.15912704969449429</v>
       </c>
       <c r="D10" s="0">
-        <v>0.026022827370324367</v>
+        <v>0.01927809719616097</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.1818226150289125</v>
+        <v>-0.15826517025143261</v>
       </c>
       <c r="F10" s="0">
-        <v>0.029656864498724067</v>
+        <v>0.022970086895762971</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.18114146638453008</v>
+        <v>-0.15747901559956723</v>
       </c>
     </row>
     <row r="11">
@@ -3150,22 +3150,22 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.12563472454454783</v>
+        <v>-0.10993038397647933</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.15561463937758424</v>
+        <v>-0.13616280945538622</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.017947054760995028</v>
+        <v>-0.019965839339501287</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.18152542958188433</v>
+        <v>-0.15829818955133634</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.013998513529793595</v>
+        <v>-0.015967362677192266</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.18172111844337316</v>
+        <v>-0.1584702135477985</v>
       </c>
     </row>
     <row r="12">
@@ -3173,22 +3173,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.16022872310938674</v>
+        <v>-0.14020013272071341</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.1196944288207913</v>
+        <v>-0.10473262521819239</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.061250050159879693</v>
+        <v>-0.058305024621642297</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.1707601496830895</v>
+        <v>-0.14850410680174148</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.057270972640902876</v>
+        <v>-0.054272851775827823</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.17193559759750407</v>
+        <v>-0.14972179042347675</v>
       </c>
     </row>
     <row r="13">
@@ -3196,22 +3196,22 @@
         <v>5.5</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.1848604757264927</v>
+        <v>-0.16175291626068111</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.076332198410466345</v>
+        <v>-0.066790673609158052</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.10084753421393822</v>
+        <v>-0.093075974196037387</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.14992827878388412</v>
+        <v>-0.12950302945900993</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.097144331271601395</v>
+        <v>-0.089313248023517838</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.15209062255173317</v>
+        <v>-0.13177267281330185</v>
       </c>
     </row>
     <row r="14">
@@ -3219,22 +3219,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.19799849932008909</v>
+        <v>-0.17324868690507794</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.028224001611973443</v>
+        <v>-0.024696001410476762</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.13413320111940027</v>
+        <v>-0.12199769220658455</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.12027377528299452</v>
+        <v>-0.10257505364655939</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.13099797019951731</v>
+        <v>-0.11880733243748352</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.12332703631616897</v>
+        <v>-0.10580620095379968</v>
       </c>
     </row>
     <row r="15">
@@ -3242,22 +3242,22 @@
         <v>6.5</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.19882593521610925</v>
+        <v>-0.17397269331409559</v>
       </c>
       <c r="C15" s="0">
-        <v>0.021639026906021677</v>
+        <v>0.018934148542768967</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.15906459184501942</v>
+        <v>-0.14328740207534368</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.083668207664662569</v>
+        <v>-0.069506147938820054</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.15674123222602529</v>
+        <v>-0.14093608446956635</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.087426338883998519</v>
+        <v>-0.073513183522331563</v>
       </c>
     </row>
     <row r="16">
@@ -3265,22 +3265,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.18729133745815926</v>
+        <v>-0.16387992027588935</v>
       </c>
       <c r="C16" s="0">
-        <v>0.070156645537923973</v>
+        <v>0.061387064845683473</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.17423303580312971</v>
+        <v>-0.15572809872882479</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.042397651749933457</v>
+        <v>-0.032420742361869731</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.17289092428924061</v>
+        <v>-0.1544131748826022</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.046609935503340333</v>
+        <v>-0.036941527877935587</v>
       </c>
     </row>
     <row r="17">
@@ -3288,22 +3288,22 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.16411187146791215</v>
+        <v>-0.14359788753442312</v>
       </c>
       <c r="C17" s="0">
-        <v>0.11431226374846876</v>
+        <v>0.10002323077991015</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.17888061575119057</v>
+        <v>-0.15869079389767843</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0010293700089262919</v>
+        <v>0.0063788454224134872</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.178602260530417</v>
+        <v>-0.15851907228622186</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.003353180034676842</v>
+        <v>0.0016529119093637024</v>
       </c>
     </row>
     <row r="18">
@@ -3311,22 +3311,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.13072872417272238</v>
+        <v>-0.11438763365113208</v>
       </c>
       <c r="C18" s="0">
-        <v>0.15136049906158566</v>
+        <v>0.13244043667888744</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.17288381368916278</v>
+        <v>-0.1521239300383975</v>
       </c>
       <c r="E18" s="0">
-        <v>0.044044880517470325</v>
+        <v>0.044555891532002997</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.17366493833134003</v>
+        <v>-0.15310450155875074</v>
       </c>
       <c r="G18" s="0">
-        <v>0.039779010606526666</v>
+        <v>0.039946144396186663</v>
       </c>
     </row>
     <row r="19">
@@ -3334,22 +3334,22 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.089217497982758562</v>
+        <v>-0.07806531073491374</v>
       </c>
       <c r="C19" s="0">
-        <v>0.17899787164571671</v>
+        <v>0.15662313769000211</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.15671714476740009</v>
+        <v>-0.13652054757513715</v>
       </c>
       <c r="E19" s="0">
-        <v>0.084159169195889033</v>
+        <v>0.07986414974279539</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.15847572208555658</v>
+        <v>-0.13857002916185784</v>
       </c>
       <c r="G19" s="0">
-        <v>0.080275128772806931</v>
+        <v>0.07567344070356212</v>
       </c>
     </row>
     <row r="20">
@@ -3357,22 +3357,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.042159159886155942</v>
+        <v>-0.036889264900386451</v>
       </c>
       <c r="C20" s="0">
-        <v>0.19550602353301941</v>
+        <v>0.17106777059139197</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.1314032009601056</v>
+        <v>-0.11286966910710046</v>
       </c>
       <c r="E20" s="0">
-        <v>0.11907965818784705</v>
+        <v>0.11025652090690438</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.1339936177467739</v>
+        <v>-0.11582632175865049</v>
       </c>
       <c r="G20" s="0">
-        <v>0.11580248217477661</v>
+        <v>0.10674408299805843</v>
       </c>
     </row>
     <row r="21">
@@ -3380,22 +3380,22 @@
         <v>9.5</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0075204305775953108</v>
+        <v>0.0065803767553958975</v>
       </c>
       <c r="C21" s="0">
-        <v>0.19985855779507558</v>
+        <v>0.17487623807069114</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.098450164151643649</v>
+        <v>-0.082594334676399678</v>
       </c>
       <c r="E21" s="0">
-        <v>0.14681574113110973</v>
+        <v>0.13398000415523956</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.10167973530643463</v>
+        <v>-0.086237483772660523</v>
       </c>
       <c r="G21" s="0">
-        <v>0.14431826624398714</v>
+        <v>0.13134373648265979</v>
       </c>
     </row>
     <row r="22">
@@ -3403,22 +3403,22 @@
         <v>10</v>
       </c>
       <c r="B22" s="0">
-        <v>0.056732437092645256</v>
+        <v>0.049640882456064593</v>
       </c>
       <c r="C22" s="0">
-        <v>0.1917848549326277</v>
+        <v>0.16781174806604923</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.059775724052458741</v>
+        <v>-0.04747663596832509</v>
       </c>
       <c r="E22" s="0">
-        <v>0.16577124431619936</v>
+        <v>0.14965775466006587</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.063421779509566512</v>
+        <v>-0.051548485435098108</v>
       </c>
       <c r="G22" s="0">
-        <v>0.16416744221735774</v>
+        <v>0.14802394878424974</v>
       </c>
     </row>
     <row r="23">
@@ -3426,22 +3426,22 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="0">
-        <v>0.10241709544836813</v>
+        <v>0.089614958517322124</v>
       </c>
       <c r="C23" s="0">
-        <v>0.17178689868531841</v>
+        <v>0.15031353634965361</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.017616292968878414</v>
+        <v>-0.0095696724500563823</v>
       </c>
       <c r="E23" s="0">
-        <v>0.17482346972237958</v>
+        <v>0.15635721431751651</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.021442758014760421</v>
+        <v>-0.013797347561721567</v>
       </c>
       <c r="G23" s="0">
-        <v>0.17416636596429586</v>
+        <v>0.15577713298021523</v>
       </c>
     </row>
     <row r="24">
@@ -3449,22 +3449,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="0">
-        <v>0.14173395485825199</v>
+        <v>0.1240172105009705</v>
       </c>
       <c r="C24" s="0">
-        <v>0.14110806511407839</v>
+        <v>0.12346955697481858</v>
       </c>
       <c r="D24" s="0">
-        <v>0.025578577470721786</v>
+        <v>0.028903038519453098</v>
       </c>
       <c r="E24" s="0">
-        <v>0.17338605995806941</v>
+        <v>0.15364194263432851</v>
       </c>
       <c r="F24" s="0">
-        <v>0.021805838259179589</v>
+        <v>0.024786839631375249</v>
       </c>
       <c r="G24" s="0">
-        <v>0.17366954842457399</v>
+        <v>0.1540944329465716</v>
       </c>
     </row>
     <row r="25">
@@ -3472,22 +3472,22 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="0">
-        <v>0.17223848343230416</v>
+        <v>0.15070867300326615</v>
       </c>
       <c r="C25" s="0">
-        <v>0.10165581549985167</v>
+        <v>0.088948838562370208</v>
       </c>
       <c r="D25" s="0">
-        <v>0.067265342583510371</v>
+        <v>0.065659113194203311</v>
       </c>
       <c r="E25" s="0">
-        <v>0.16145209625238771</v>
+        <v>0.14160408731396051</v>
       </c>
       <c r="F25" s="0">
-        <v>0.063765018221154157</v>
+        <v>0.06189814328640976</v>
       </c>
       <c r="G25" s="0">
-        <v>0.16261605815843172</v>
+        <v>0.14300330347555473</v>
       </c>
     </row>
     <row r="26">
@@ -3495,22 +3495,22 @@
         <v>12</v>
       </c>
       <c r="B26" s="0">
-        <v>0.1920340573300732</v>
+        <v>0.16802980016381405</v>
       </c>
       <c r="C26" s="0">
-        <v>0.055883099639785175</v>
+        <v>0.04889771218481203</v>
       </c>
       <c r="D26" s="0">
-        <v>0.10493661941846767</v>
+        <v>0.09847706928878916</v>
       </c>
       <c r="E26" s="0">
-        <v>0.13961362088366314</v>
+        <v>0.12087428065634361</v>
       </c>
       <c r="F26" s="0">
-        <v>0.10190085318297343</v>
+        <v>0.09527730714891279</v>
       </c>
       <c r="G26" s="0">
-        <v>0.14155174861565173</v>
+        <v>0.12308145909516718</v>
       </c>
     </row>
     <row r="27">
@@ -3518,22 +3518,22 @@
         <v>12.5</v>
       </c>
       <c r="B27" s="0">
-        <v>0.19988988364489987</v>
+        <v>0.17490364818928739</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0066358433095113634</v>
+        <v>0.0058063628958224429</v>
       </c>
       <c r="D27" s="0">
-        <v>0.13625857432104399</v>
+        <v>0.12532043078814084</v>
       </c>
       <c r="E27" s="0">
-        <v>0.10905391735055388</v>
+        <v>0.092605969961355089</v>
       </c>
       <c r="F27" s="0">
-        <v>0.13384481215810803</v>
+        <v>0.122840495687081</v>
       </c>
       <c r="G27" s="0">
-        <v>0.11162351558361891</v>
+        <v>0.095443980843389911</v>
       </c>
     </row>
     <row r="28">
@@ -3541,22 +3541,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="0">
-        <v>0.19531752514560469</v>
+        <v>0.17090283450240412</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.043023997617563106</v>
+        <v>-0.03764599791536772</v>
       </c>
       <c r="D28" s="0">
-        <v>0.15921058891569762</v>
+        <v>0.14446118749406714</v>
       </c>
       <c r="E28" s="0">
-        <v>0.071509222598183958</v>
+        <v>0.058431675350312982</v>
       </c>
       <c r="F28" s="0">
-        <v>0.15753679531563969</v>
+        <v>0.14280799841008829</v>
       </c>
       <c r="G28" s="0">
-        <v>0.07454203239308424</v>
+        <v>0.061700767499581713</v>
       </c>
     </row>
     <row r="29">
@@ -3564,22 +3564,22 @@
         <v>13.5</v>
       </c>
       <c r="B29" s="0">
-        <v>0.17860126893781533</v>
+        <v>0.15627611032058841</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.090008814756123517</v>
+        <v>-0.078757712911608088</v>
       </c>
       <c r="D29" s="0">
-        <v>0.17222097256942942</v>
+        <v>0.15459648929311709</v>
       </c>
       <c r="E29" s="0">
-        <v>0.029197031795043814</v>
+        <v>0.02038938979669859</v>
       </c>
       <c r="F29" s="0">
-        <v>0.17136433452521141</v>
+        <v>0.15382627971123647</v>
       </c>
       <c r="G29" s="0">
-        <v>0.032509852023344554</v>
+        <v>0.023882211345382931</v>
       </c>
     </row>
     <row r="30">
@@ -3587,22 +3587,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="0">
-        <v>0.15078045086866093</v>
+        <v>0.13193289451007831</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.13139731974375782</v>
+        <v>-0.11497265477578809</v>
       </c>
       <c r="D30" s="0">
-        <v>0.17429091585742251</v>
+        <v>0.15495119448814731</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.015291118344991542</v>
+        <v>-0.019181617180923025</v>
       </c>
       <c r="F30" s="0">
-        <v>0.17428959066759991</v>
+        <v>0.15507518220972191</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.011887433266095634</v>
+        <v>-0.015667851619805898</v>
       </c>
     </row>
     <row r="31">
@@ -3610,22 +3610,22 @@
         <v>14.5</v>
       </c>
       <c r="B31" s="0">
-        <v>0.11358483465773897</v>
+        <v>0.099386730325521602</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.16461617580230109</v>
+        <v>-0.14403915382701346</v>
       </c>
       <c r="D31" s="0">
-        <v>0.16509682121181307</v>
+        <v>0.14535747094791074</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.059133213209185589</v>
+        <v>-0.057774716770095678</v>
       </c>
       <c r="F31" s="0">
-        <v>0.16595342480441716</v>
+        <v>0.14635033439890444</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.055827688548358477</v>
+        <v>-0.054430850980643673</v>
       </c>
     </row>
     <row r="32">
@@ -3633,22 +3633,22 @@
         <v>15</v>
       </c>
       <c r="B32" s="0">
-        <v>0.069327063567005159</v>
+        <v>0.060661180621129518</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.18759999535494778</v>
+        <v>-0.1641499959355793</v>
       </c>
       <c r="D32" s="0">
-        <v>0.14505860035760701</v>
+        <v>0.12630121941656675</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.099454993264268113</v>
+        <v>-0.092876091571850061</v>
       </c>
       <c r="F32" s="0">
-        <v>0.14674314983900935</v>
+        <v>0.12810926564231317</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.09643394997388105</v>
+        <v>-0.089879404397593343</v>
       </c>
     </row>
     <row r="33">
@@ -3656,22 +3656,22 @@
         <v>15.5</v>
       </c>
       <c r="B33" s="0">
-        <v>0.020758871443850593</v>
+        <v>0.018164012513369271</v>
       </c>
       <c r="C33" s="0">
-        <v>-0.19891975582223523</v>
+        <v>-0.17405478634445581</v>
       </c>
       <c r="D33" s="0">
-        <v>0.11535905736922401</v>
+        <v>0.098924213979876982</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.13353649363835374</v>
+        <v>-0.12214363528850705</v>
       </c>
       <c r="F33" s="0">
-        <v>0.11780854608791461</v>
+        <v>0.10146938545254965</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.13098329761982369</v>
+        <v>-0.1196608729421092</v>
       </c>
     </row>
     <row r="34">
@@ -3679,22 +3679,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.029100006761722703</v>
+        <v>-0.025462505916507366</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.19787164932467635</v>
+        <v>-0.1731376931590918</v>
       </c>
       <c r="D34" s="0">
-        <v>0.07789876785607644</v>
+        <v>0.064971742446745875</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.15903280746215215</v>
+        <v>-0.14359132887245546</v>
       </c>
       <c r="F34" s="0">
-        <v>0.081011476579888178</v>
+        <v>0.068148467509137195</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.15712642985069189</v>
+        <v>-0.14178245866616179</v>
       </c>
     </row>
     <row r="35">
@@ -3702,22 +3702,22 @@
         <v>16.5</v>
       </c>
       <c r="B35" s="0">
-        <v>-0.077149587490444357</v>
+        <v>-0.067505889054138818</v>
       </c>
       <c r="C35" s="0">
-        <v>-0.18452084204786806</v>
+        <v>-0.16145573679188455</v>
       </c>
       <c r="D35" s="0">
-        <v>0.035174978775595042</v>
+        <v>0.026679949005667912</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.17418472622220371</v>
+        <v>-0.15575924017239545</v>
       </c>
       <c r="F35" s="0">
-        <v>0.038800858160737847</v>
+        <v>0.030345159283103065</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.17309194594130337</v>
+        <v>-0.15477579604065078</v>
       </c>
     </row>
     <row r="36">
@@ -3725,22 +3725,22 @@
         <v>17</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.12040238053696473</v>
+        <v>-0.10535208296984414</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.15969742252469807</v>
+        <v>-0.13973524470911081</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.0099148042326730676</v>
+        <v>-0.013393567233017406</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.17798575052655868</v>
+        <v>-0.15784441526374798</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.0059816100118453702</v>
+        <v>-0.0094318208428610939</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.17784327730894234</v>
+        <v>-0.15781707727233502</v>
       </c>
     </row>
     <row r="37">
@@ -3748,22 +3748,22 @@
         <v>17.5</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.15616913672114982</v>
+        <v>-0.1366479946310061</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.12494479075083849</v>
+        <v>-0.10932669190698367</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.054324013127178841</v>
+        <v>-0.052578993126332157</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.17027111526866329</v>
+        <v>-0.14976893194891938</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.050341662877017399</v>
+        <v>-0.0485650843403184</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.17115961401203864</v>
+        <v>-0.15078407710611916</v>
       </c>
     </row>
     <row r="38">
@@ -3771,22 +3771,22 @@
         <v>18</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.1822260523769354</v>
+        <v>-0.15944779582981847</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.082423697048351313</v>
+        <v>-0.072120734917307402</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.095122654397596651</v>
+        <v>-0.088314017877310969</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.15170844950301932</v>
+        <v>-0.13217146496359392</v>
       </c>
       <c r="F38" s="0">
-        <v>-0.091381439917626692</v>
+        <v>-0.08453254165715475</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.15362747948979533</v>
+        <v>-0.13424375505925096</v>
       </c>
     </row>
     <row r="39">
@@ -3794,22 +3794,22 @@
         <v>18.5</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.19695303469346473</v>
+        <v>-0.17233390535678164</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.034777897076086708</v>
+        <v>-0.030430659941575872</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.12973030253857382</v>
+        <v>-0.11834036731931592</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.12369615175876505</v>
+        <v>-0.10632610851934725</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.12651863970395577</v>
+        <v>-0.11508734943420901</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.12655138242304373</v>
+        <v>-0.10937854812979586</v>
       </c>
     </row>
     <row r="40">
@@ -3817,22 +3817,22 @@
         <v>19</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.19943443123927571</v>
+        <v>-0.17450512733436624</v>
       </c>
       <c r="C40" s="0">
-        <v>0.015030224092361861</v>
+        <v>0.013151446080816628</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.15608281753864159</v>
+        <v>-0.14085141939033197</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.088200559350459257</v>
+        <v>-0.07400907777131413</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.1536497726460892</v>
+        <v>-0.13839639940371437</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.091809441769786046</v>
+        <v>-0.077869651085557073</v>
       </c>
     </row>
     <row r="41">
@@ -3840,22 +3840,22 @@
         <v>19.5</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.18951596079559863</v>
+        <v>-0.16582646569614881</v>
       </c>
       <c r="C41" s="0">
-        <v>0.063903838724454723</v>
+        <v>0.055915858883897884</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.17272483211141293</v>
+        <v>-0.15458144593504441</v>
       </c>
       <c r="E41" s="0">
-        <v>-0.047571604013236589</v>
+        <v>-0.037341504044335283</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.17125035597927199</v>
+        <v>-0.15313167974446962</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.051685131043922826</v>
+        <v>-0.0417582191046076</v>
       </c>
     </row>
     <row r="42">
@@ -3863,22 +3863,22 @@
         <v>20</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.1678143058152905</v>
+        <v>-0.14683751758837918</v>
       </c>
       <c r="C42" s="0">
-        <v>0.10880422217787396</v>
+        <v>0.095203694405639722</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.17884139440273783</v>
+        <v>-0.15884241024936291</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.0043669868583895155</v>
+        <v>0.0013675502907502662</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.17842026092107302</v>
+        <v>-0.15851811330144652</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.0086997420291409847</v>
+        <v>-0.0033017104454413776</v>
       </c>
     </row>
     <row r="43">
@@ -3886,22 +3886,22 @@
         <v>20.5</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.13567877009476906</v>
+        <v>-0.11871892383292293</v>
       </c>
       <c r="C43" s="0">
-        <v>0.14693968608095909</v>
+        <v>0.1285722253208392</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.17424940930470406</v>
+        <v>-0.15352178297127303</v>
       </c>
       <c r="E43" s="0">
-        <v>0.038802064483900348</v>
+        <v>0.039764276433136743</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.17488878099940242</v>
+        <v>-0.15434592932780139</v>
       </c>
       <c r="G43" s="0">
-        <v>0.034541478377046228</v>
+        <v>0.035163899926671842</v>
       </c>
     </row>
     <row r="44">
@@ -3909,22 +3909,22 @@
         <v>21</v>
       </c>
       <c r="B44" s="0">
-        <v>-0.095107385599198513</v>
+        <v>-0.083218962399298699</v>
       </c>
       <c r="C44" s="0">
-        <v>0.17593915199433402</v>
+        <v>0.15394675799504226</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.15936527421865299</v>
+        <v>-0.13905425443912281</v>
       </c>
       <c r="E44" s="0">
-        <v>0.079403243390755079</v>
+        <v>0.075575697324467242</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.16099240468552717</v>
+        <v>-0.14095575578629896</v>
       </c>
       <c r="G44" s="0">
-        <v>0.075486362064634133</v>
+        <v>0.071351206912766807</v>
       </c>
     </row>
     <row r="45">
@@ -3932,22 +3932,22 @@
         <v>21.5</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.048622684512205999</v>
+        <v>-0.042544848948180246</v>
       </c>
       <c r="C45" s="0">
-        <v>0.19399957358413569</v>
+        <v>0.16974962688611875</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.13515718644707778</v>
+        <v>-0.1163756277237781</v>
       </c>
       <c r="E45" s="0">
-        <v>0.11509859077694301</v>
+        <v>0.10671904799022844</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.13763320250084615</v>
+        <v>-0.11920239518556858</v>
       </c>
       <c r="G45" s="0">
-        <v>0.11175772018417399</v>
+        <v>0.10313649753533467</v>
       </c>
     </row>
     <row r="46">
@@ -3955,22 +3955,22 @@
         <v>22</v>
       </c>
       <c r="B46" s="0">
-        <v>0.00088513959761015717</v>
+        <v>0.00077449714790888747</v>
       </c>
       <c r="C46" s="0">
-        <v>0.19999804131014068</v>
+        <v>0.17499828614637311</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.10308447291140042</v>
+        <v>-0.086862596271594567</v>
       </c>
       <c r="E46" s="0">
-        <v>0.14384707654170004</v>
+        <v>0.13139730087108542</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.10622105434940254</v>
+        <v>-0.090400659703142275</v>
       </c>
       <c r="G46" s="0">
-        <v>0.14126239069746732</v>
+        <v>0.12866278497411104</v>
       </c>
     </row>
     <row r="47">
@@ -3978,22 +3978,22 @@
         <v>22.5</v>
       </c>
       <c r="B47" s="0">
-        <v>0.050337930014350885</v>
+        <v>0.044045688762557024</v>
       </c>
       <c r="C47" s="0">
-        <v>0.1935615995022523</v>
+        <v>0.16936639956447075</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.065023389210432686</v>
+        <v>-0.052259377087700953</v>
       </c>
       <c r="E47" s="0">
-        <v>0.16399582154220255</v>
+        <v>0.14818185463868033</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.068600272005462246</v>
+        <v>-0.056254866341340672</v>
       </c>
       <c r="G47" s="0">
-        <v>0.16228816338377716</v>
+        <v>0.14643020592375763</v>
       </c>
     </row>
     <row r="48">
@@ -4001,22 +4001,22 @@
         <v>23</v>
       </c>
       <c r="B48" s="0">
-        <v>0.096660951750601173</v>
+        <v>0.084578332781776025</v>
       </c>
       <c r="C48" s="0">
-        <v>0.1750904349376857</v>
+        <v>0.15320413057047499</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.023178382044614164</v>
+        <v>-0.014591323447313849</v>
       </c>
       <c r="E48" s="0">
-        <v>0.17435885956808533</v>
+        <v>0.15608158941118008</v>
       </c>
       <c r="F48" s="0">
-        <v>-0.026960421588508476</v>
+        <v>-0.018772920194440407</v>
       </c>
       <c r="G48" s="0">
-        <v>0.17358737282140121</v>
+        <v>0.15537222295520609</v>
       </c>
     </row>
     <row r="49">
@@ -4024,22 +4024,22 @@
         <v>23.5</v>
       </c>
       <c r="B49" s="0">
-        <v>0.13697406367671067</v>
+        <v>0.11985230571712184</v>
       </c>
       <c r="C49" s="0">
-        <v>0.145732995165434</v>
+        <v>0.12751637076975475</v>
       </c>
       <c r="D49" s="0">
-        <v>0.020021366245588826</v>
+        <v>0.023933980009480452</v>
       </c>
       <c r="E49" s="0">
-        <v>0.17428062702579078</v>
+        <v>0.15459608260258256</v>
       </c>
       <c r="F49" s="0">
-        <v>0.016268390865236612</v>
+        <v>0.019833880526040834</v>
       </c>
       <c r="G49" s="0">
-        <v>0.1744444640754538</v>
+        <v>0.15491513235621945</v>
       </c>
     </row>
     <row r="50">
@@ -4047,22 +4047,22 @@
         <v>24</v>
       </c>
       <c r="B50" s="0">
-        <v>0.16877079174649842</v>
+        <v>0.14767444277818612</v>
       </c>
       <c r="C50" s="0">
-        <v>0.107314583600087</v>
+        <v>0.093900260650076117</v>
       </c>
       <c r="D50" s="0">
-        <v>0.062039017188260367</v>
+        <v>0.061036679374741332</v>
       </c>
       <c r="E50" s="0">
-        <v>0.16368052886685547</v>
+        <v>0.14375000964235621</v>
       </c>
       <c r="F50" s="0">
-        <v>0.058534492414396212</v>
+        <v>0.057263454936431424</v>
       </c>
       <c r="G50" s="0">
-        <v>0.16472399119896192</v>
+        <v>0.1450177836242692</v>
       </c>
     </row>
     <row r="51">
@@ -4070,22 +4070,22 @@
         <v>24.5</v>
       </c>
       <c r="B51" s="0">
-        <v>0.19007416941353469</v>
+        <v>0.16631489823684287</v>
       </c>
       <c r="C51" s="0">
-        <v>0.062223870996225464</v>
+        <v>0.054445887121697283</v>
       </c>
       <c r="D51" s="0">
-        <v>0.10035837255455449</v>
+        <v>0.094483079237435735</v>
       </c>
       <c r="E51" s="0">
-        <v>0.1430747146021252</v>
+        <v>0.12410554165094997</v>
       </c>
       <c r="F51" s="0">
-        <v>0.097295412941657833</v>
+        <v>0.091245127218619423</v>
       </c>
       <c r="G51" s="0">
-        <v>0.14489519557317407</v>
+        <v>0.12618820525055774</v>
       </c>
     </row>
     <row r="52">
@@ -4093,22 +4093,22 @@
         <v>25</v>
       </c>
       <c r="B52" s="0">
-        <v>0.19955965583571614</v>
+        <v>0.17461469885625161</v>
       </c>
       <c r="C52" s="0">
-        <v>0.013264379470240138</v>
+        <v>0.01160633203646012</v>
       </c>
       <c r="D52" s="0">
-        <v>0.13261975980836632</v>
+        <v>0.1222088199463697</v>
       </c>
       <c r="E52" s="0">
-        <v>0.11357135979611283</v>
+        <v>0.09674974052345145</v>
       </c>
       <c r="F52" s="0">
-        <v>0.13015679011298703</v>
+        <v>0.11966747511568157</v>
       </c>
       <c r="G52" s="0">
-        <v>0.11602935312225736</v>
+        <v>0.099473941149617814</v>
       </c>
     </row>
     <row r="53">
@@ -4116,22 +4116,22 @@
         <v>25.5</v>
       </c>
       <c r="B53" s="0">
-        <v>0.19663748940951833</v>
+        <v>0.17205780323332856</v>
       </c>
       <c r="C53" s="0">
-        <v>-0.036519826926226802</v>
+        <v>-0.031954848560448453</v>
       </c>
       <c r="D53" s="0">
-        <v>0.1567587221279356</v>
+        <v>0.1424420014641147</v>
       </c>
       <c r="E53" s="0">
-        <v>0.076836115665856936</v>
+        <v>0.063254416756285639</v>
       </c>
       <c r="F53" s="0">
-        <v>0.15501452017977543</v>
+        <v>0.14070676581271452</v>
       </c>
       <c r="G53" s="0">
-        <v>0.079766340853073575</v>
+        <v>0.066423275348434799</v>
       </c>
     </row>
     <row r="54">
@@ -4139,22 +4139,22 @@
         <v>26</v>
       </c>
       <c r="B54" s="0">
-        <v>0.18148935629003923</v>
+        <v>0.15880318675378433</v>
       </c>
       <c r="C54" s="0">
-        <v>-0.084033407365328189</v>
+        <v>-0.073529231444662155</v>
       </c>
       <c r="D54" s="0">
-        <v>0.17114151270023106</v>
+        <v>0.15382035010744124</v>
       </c>
       <c r="E54" s="0">
-        <v>0.035024892137498022</v>
+        <v>0.025606611094700457</v>
       </c>
       <c r="F54" s="0">
-        <v>0.17019388675796798</v>
+        <v>0.15294961472876978</v>
       </c>
       <c r="G54" s="0">
-        <v>0.03824731589505273</v>
+        <v>0.029015174389719067</v>
       </c>
     </row>
     <row r="55">
@@ -4162,22 +4162,22 @@
         <v>26.5</v>
       </c>
       <c r="B55" s="0">
-        <v>0.15505709402585757</v>
+        <v>0.13567495727262538</v>
       </c>
       <c r="C55" s="0">
-        <v>-0.12632219754364774</v>
+        <v>-0.11053192285069176</v>
       </c>
       <c r="D55" s="0">
-        <v>0.17468993481058337</v>
+        <v>0.15549532520412812</v>
       </c>
       <c r="E55" s="0">
-        <v>-0.0093181591638918579</v>
+        <v>-0.013891149772180922</v>
       </c>
       <c r="F55" s="0">
-        <v>0.17457768615489022</v>
+        <v>0.15550200104035977</v>
       </c>
       <c r="G55" s="0">
-        <v>-0.0059888535426600303</v>
+        <v>-0.010443145067405936</v>
       </c>
     </row>
     <row r="56">
@@ -4185,22 +4185,22 @@
         <v>27</v>
       </c>
       <c r="B56" s="0">
-        <v>0.11898413266197841</v>
+        <v>0.1041111160792311</v>
       </c>
       <c r="C56" s="0">
-        <v>-0.1607568853103242</v>
+        <v>-0.14066227464653366</v>
       </c>
       <c r="D56" s="0">
-        <v>0.1669861763778572</v>
+        <v>0.14721471309518971</v>
       </c>
       <c r="E56" s="0">
-        <v>-0.053398429177914063</v>
+        <v>-0.052750185060896314</v>
       </c>
       <c r="F56" s="0">
-        <v>0.16771316783912674</v>
+        <v>0.14807507617711552</v>
       </c>
       <c r="G56" s="0">
-        <v>-0.050146344390894937</v>
+        <v>-0.049450281995932988</v>
       </c>
     </row>
     <row r="57">
@@ -4208,22 +4208,22 @@
         <v>27.5</v>
       </c>
       <c r="B57" s="0">
-        <v>0.075513314219458658</v>
+        <v>0.066074149942026331</v>
       </c>
       <c r="C57" s="0">
-        <v>-0.18519648856172544</v>
+        <v>-0.16204692749150976</v>
       </c>
       <c r="D57" s="0">
-        <v>0.14834590200627606</v>
+        <v>0.12937385653753941</v>
       </c>
       <c r="E57" s="0">
-        <v>-0.094343170311469937</v>
+        <v>-0.088451581684252628</v>
       </c>
       <c r="F57" s="0">
-        <v>0.14988502885671662</v>
+        <v>0.13103661425898458</v>
       </c>
       <c r="G57" s="0">
-        <v>-0.091348471905249612</v>
+        <v>-0.085472524458820393</v>
       </c>
     </row>
     <row r="58">
@@ -4231,22 +4231,22 @@
         <v>28</v>
       </c>
       <c r="B58" s="0">
-        <v>0.027347443641566719</v>
+        <v>0.02392901318637088</v>
       </c>
       <c r="C58" s="0">
-        <v>-0.19812147113897405</v>
+        <v>-0.17335628724660229</v>
       </c>
       <c r="D58" s="0">
-        <v>0.11984539066645968</v>
+        <v>0.10302467603788912</v>
       </c>
       <c r="E58" s="0">
-        <v>-0.12940298768134018</v>
+        <v>-0.11862200085603855</v>
       </c>
       <c r="F58" s="0">
-        <v>0.12213951369366718</v>
+        <v>0.10541633642101786</v>
       </c>
       <c r="G58" s="0">
-        <v>-0.12684221280809058</v>
+        <v>-0.11612493075348185</v>
       </c>
     </row>
     <row r="59">
@@ -4254,22 +4254,22 @@
         <v>28.5</v>
       </c>
       <c r="B59" s="0">
-        <v>-0.022518758526767095</v>
+        <v>-0.019703913710921207</v>
       </c>
       <c r="C59" s="0">
-        <v>-0.19872822022655251</v>
+        <v>-0.17388719269823344</v>
       </c>
       <c r="D59" s="0">
-        <v>0.083287331561437056</v>
+        <v>0.069832110075796011</v>
       </c>
       <c r="E59" s="0">
-        <v>-0.15617016025658192</v>
+        <v>-0.14121731264982126</v>
       </c>
       <c r="F59" s="0">
-        <v>0.086244750209776871</v>
+        <v>0.072855213394439039</v>
       </c>
       <c r="G59" s="0">
-        <v>-0.15421642234533128</v>
+        <v>-0.13935673433156873</v>
       </c>
     </row>
     <row r="60">
@@ -4277,22 +4277,22 @@
         <v>29</v>
       </c>
       <c r="B60" s="0">
-        <v>-0.07098485335774099</v>
+        <v>-0.06211174668802337</v>
       </c>
       <c r="C60" s="0">
-        <v>-0.18697901110493662</v>
+        <v>-0.16360663471681952</v>
       </c>
       <c r="D60" s="0">
-        <v>0.041092768022298554</v>
+        <v>0.031971202560134734</v>
       </c>
       <c r="E60" s="0">
-        <v>-0.17279169659001714</v>
+        <v>-0.1546955350142809</v>
       </c>
       <c r="F60" s="0">
-        <v>0.044577608056739437</v>
+        <v>0.035494869200842639</v>
       </c>
       <c r="G60" s="0">
-        <v>-0.17160955747479853</v>
+        <v>-0.15361999199034312</v>
       </c>
     </row>
     <row r="61">
@@ -4300,22 +4300,22 @@
         <v>29.5</v>
       </c>
       <c r="B61" s="0">
-        <v>-0.11503745381648055</v>
+        <v>-0.10065777208942048</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.16360435269093884</v>
+        <v>-0.14315380860457147</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.003883054021367717</v>
+        <v>-0.0080336285742993591</v>
       </c>
       <c r="E61" s="0">
-        <v>-0.17814532637324215</v>
+        <v>-0.15815514889606505</v>
       </c>
       <c r="F61" s="0">
-        <v>-6.0373648309450245e-05</v>
+        <v>-0.004186320614588103</v>
       </c>
       <c r="G61" s="0">
-        <v>-0.17787565307489892</v>
+        <v>-0.15799754594323026</v>
       </c>
     </row>
     <row r="62">
@@ -4323,22 +4323,22 @@
         <v>30</v>
       </c>
       <c r="B62" s="0">
-        <v>-0.15193758257176426</v>
+        <v>-0.13294538475029372</v>
       </c>
       <c r="C62" s="0">
-        <v>-0.13005756803142338</v>
+        <v>-0.11380037202749545</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.048594711101192796</v>
+        <v>-0.047512891726868622</v>
       </c>
       <c r="E62" s="0">
-        <v>-0.17194350234912134</v>
+        <v>-0.15141443461421294</v>
       </c>
       <c r="F62" s="0">
-        <v>-0.044677976011521119</v>
+        <v>-0.043571644863871405</v>
       </c>
       <c r="G62" s="0">
-        <v>-0.17267859809039823</v>
+        <v>-0.15227031396236973</v>
       </c>
     </row>
     <row r="63">
@@ -4346,22 +4346,22 @@
         <v>30.5</v>
       </c>
       <c r="B63" s="0">
-        <v>-0.17939096834045778</v>
+        <v>-0.15696709729790057</v>
       </c>
       <c r="C63" s="0">
-        <v>-0.088424433715307879</v>
+        <v>-0.077371379500894399</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.090073599646020908</v>
+        <v>-0.083872554736902499</v>
       </c>
       <c r="E63" s="0">
-        <v>-0.1547411574937336</v>
+        <v>-0.13501568891372318</v>
       </c>
       <c r="F63" s="0">
-        <v>-0.086344915493868052</v>
+        <v>-0.080111705540474878</v>
       </c>
       <c r="G63" s="0">
-        <v>-0.15649794795026534</v>
+        <v>-0.13691521159436906</v>
       </c>
     </row>
     <row r="64">
@@ -4369,22 +4369,22 @@
         <v>31</v>
       </c>
       <c r="B64" s="0">
-        <v>-0.19569069256377683</v>
+        <v>-0.17122935599330474</v>
       </c>
       <c r="C64" s="0">
-        <v>-0.041293496387559317</v>
+        <v>-0.036131809339114404</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.12567061377522792</v>
+        <v>-0.11479710398737786</v>
       </c>
       <c r="E64" s="0">
-        <v>-0.12784759506832899</v>
+        <v>-0.11015454253216145</v>
       </c>
       <c r="F64" s="0">
-        <v>-0.12241871273178648</v>
+        <v>-0.11150985811035284</v>
       </c>
       <c r="G64" s="0">
-        <v>-0.13055074010415069</v>
+        <v>-0.11303950885119467</v>
       </c>
     </row>
     <row r="65">
@@ -4392,22 +4392,22 @@
         <v>31.5</v>
       </c>
       <c r="B65" s="0">
-        <v>-0.1998233173359468</v>
+        <v>-0.17484540266895346</v>
       </c>
       <c r="C65" s="0">
-        <v>0.008404870543768159</v>
+        <v>0.0073542617257971394</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.15323659047474536</v>
+        <v>-0.13840696505685074</v>
       </c>
       <c r="E65" s="0">
-        <v>-0.093169644057413598</v>
+        <v>-0.078552330906011353</v>
       </c>
       <c r="F65" s="0">
-        <v>-0.15071864580588273</v>
+        <v>-0.13586809266867636</v>
       </c>
       <c r="G65" s="0">
-        <v>-0.096652796651208489</v>
+        <v>-0.082268683150400215</v>
       </c>
     </row>
     <row r="66">
@@ -4415,22 +4415,22 @@
         <v>32</v>
       </c>
       <c r="B66" s="0">
-        <v>-0.19153189606467694</v>
+        <v>-0.16759040905659231</v>
       </c>
       <c r="C66" s="0">
-        <v>0.057580663333013059</v>
+        <v>0.050383080416386429</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.17122714339031442</v>
+        <v>-0.15335742928994411</v>
       </c>
       <c r="E66" s="0">
-        <v>-0.053026002300355028</v>
+        <v>-0.0422993851412405</v>
       </c>
       <c r="F66" s="0">
-        <v>-0.16963609441997349</v>
+        <v>-0.15178570493213528</v>
       </c>
       <c r="G66" s="0">
-        <v>-0.057050783927380187</v>
+        <v>-0.046608807585282824</v>
       </c>
     </row>
     <row r="67">
@@ -4438,22 +4438,22 @@
         <v>32.5</v>
       </c>
       <c r="B67" s="0">
-        <v>-0.17133194916576847</v>
+        <v>-0.14991545552004742</v>
       </c>
       <c r="C67" s="0">
-        <v>0.10317636936362186</v>
+        <v>0.090279323193169128</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.17874215301634161</v>
+        <v>-0.15888260122208761</v>
       </c>
       <c r="E67" s="0">
-        <v>-0.0099661514175554897</v>
+        <v>-0.0036951098311241784</v>
       </c>
       <c r="F67" s="0">
-        <v>-0.17818725068534336</v>
+        <v>-0.15841305987426121</v>
       </c>
       <c r="G67" s="0">
-        <v>-0.014251622324490461</v>
+        <v>-0.008301709177602784</v>
       </c>
     </row>
     <row r="68">
@@ -4461,22 +4461,22 @@
         <v>33</v>
       </c>
       <c r="B68" s="0">
-        <v>-0.14047941150054272</v>
+        <v>-0.12291948506297487</v>
       </c>
       <c r="C68" s="0">
-        <v>0.14235706847382462</v>
+        <v>0.12456243491459654</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.17552062428919135</v>
+        <v>-0.15479728921163249</v>
       </c>
       <c r="E68" s="0">
-        <v>0.03338953665908681</v>
+        <v>0.034899236407295399</v>
       </c>
       <c r="F68" s="0">
-        <v>-0.17602240060210661</v>
+        <v>-0.15546810511899151</v>
       </c>
       <c r="G68" s="0">
-        <v>0.029135439639160737</v>
+        <v>0.030315108021228186</v>
       </c>
     </row>
     <row r="69">
@@ -4484,22 +4484,22 @@
         <v>33.5</v>
       </c>
       <c r="B69" s="0">
-        <v>-0.1008925444291856</v>
+        <v>-0.088280976375537404</v>
       </c>
       <c r="C69" s="0">
-        <v>0.17268669456158112</v>
+        <v>0.15110085774138349</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.16190909481088248</v>
+        <v>-0.14147054586778621</v>
       </c>
       <c r="E69" s="0">
-        <v>0.074486381859778933</v>
+        <v>0.071189635849048138</v>
       </c>
       <c r="F69" s="0">
-        <v>-0.16340566261986536</v>
+        <v>-0.14322411568266388</v>
       </c>
       <c r="G69" s="0">
-        <v>0.070539360243014243</v>
+        <v>0.066937965176076059</v>
       </c>
     </row>
     <row r="70">
@@ -4507,22 +4507,22 @@
         <v>34</v>
       </c>
       <c r="B70" s="0">
-        <v>-0.055032667610319386</v>
+        <v>-0.048153584159029462</v>
       </c>
       <c r="C70" s="0">
-        <v>0.19227949837591138</v>
+        <v>0.16824456107892244</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.13881387845905035</v>
+        <v>-0.11978033624206431</v>
       </c>
       <c r="E70" s="0">
-        <v>0.11095319345106854</v>
+        <v>0.10306114769693941</v>
       </c>
       <c r="F70" s="0">
-        <v>-0.1411743019955346</v>
+        <v>-0.12247522381930794</v>
       </c>
       <c r="G70" s="0">
-        <v>0.10755163404990649</v>
+        <v>0.099414193132516343</v>
       </c>
     </row>
     <row r="71">
@@ -4530,22 +4530,22 @@
         <v>34.5</v>
       </c>
       <c r="B71" s="0">
-        <v>-0.0057511260658374332</v>
+        <v>-0.0050322353076077539</v>
       </c>
       <c r="C71" s="0">
-        <v>0.19991729427184343</v>
+        <v>0.174927632487863</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.10764056721061756</v>
+        <v>-0.091053928976154788</v>
       </c>
       <c r="E71" s="0">
-        <v>0.14070604307954421</v>
+        <v>0.1286750183305716</v>
       </c>
       <c r="F71" s="0">
-        <v>-0.11068173653995193</v>
+        <v>-0.094483653067066603</v>
       </c>
       <c r="G71" s="0">
-        <v>0.13803689725216034</v>
+        <v>0.12584683161150101</v>
       </c>
     </row>
     <row r="72">
@@ -4553,22 +4553,22 @@
         <v>35</v>
       </c>
       <c r="B72" s="0">
-        <v>0.043887992642291866</v>
+        <v>0.038401993562005382</v>
       </c>
       <c r="C72" s="0">
-        <v>0.19512520109363152</v>
+        <v>0.17073455095692758</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.070220604939178491</v>
+        <v>-0.056995404250034749</v>
       </c>
       <c r="E72" s="0">
-        <v>0.16204021626816106</v>
+        <v>0.14655253973246044</v>
       </c>
       <c r="F72" s="0">
-        <v>-0.073725212967114567</v>
+        <v>-0.060910589323011181</v>
       </c>
       <c r="G72" s="0">
-        <v>0.1602309943113342</v>
+        <v>0.14468648817570137</v>
       </c>
     </row>
     <row r="73">
@@ -4576,22 +4576,22 @@
         <v>35.5</v>
       </c>
       <c r="B73" s="0">
-        <v>0.090798368535961377</v>
+        <v>0.079448572468966208</v>
       </c>
       <c r="C73" s="0">
-        <v>0.17820116798497068</v>
+        <v>0.15592602198684935</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.028723881683437862</v>
+        <v>-0.019600470819181447</v>
       </c>
       <c r="E73" s="0">
-        <v>0.17370978199776196</v>
+        <v>0.15564528371586059</v>
       </c>
       <c r="F73" s="0">
-        <v>-0.032458035534787391</v>
+        <v>-0.023731732296730944</v>
       </c>
       <c r="G73" s="0">
-        <v>0.17282572034063887</v>
+        <v>0.15480905026931185</v>
       </c>
     </row>
     <row r="74">
@@ -4599,22 +4599,22 @@
         <v>36</v>
       </c>
       <c r="B74" s="0">
-        <v>0.13206334164881603</v>
+        <v>0.11555542394271402</v>
       </c>
       <c r="C74" s="0">
-        <v>0.15019744935433521</v>
+        <v>0.13142276818504331</v>
       </c>
       <c r="D74" s="0">
-        <v>0.014443040461991956</v>
+        <v>0.018941023717600258</v>
       </c>
       <c r="E74" s="0">
-        <v>0.17499228672744715</v>
+        <v>0.1553897955952748</v>
       </c>
       <c r="F74" s="0">
-        <v>0.010713494503389438</v>
+        <v>0.014861373797489578</v>
       </c>
       <c r="G74" s="0">
-        <v>0.17503783872529768</v>
+        <v>0.1555769616903159</v>
       </c>
     </row>
     <row r="75">
@@ -4622,22 +4622,22 @@
         <v>36.5</v>
       </c>
       <c r="B75" s="0">
-        <v>0.16511725581634781</v>
+        <v>0.14447759883930433</v>
       </c>
       <c r="C75" s="0">
-        <v>0.11285518079237104</v>
+        <v>0.098748283193324654</v>
       </c>
       <c r="D75" s="0">
-        <v>0.056752209330544999</v>
+        <v>0.056353614714623836</v>
       </c>
       <c r="E75" s="0">
-        <v>0.16573507703603019</v>
+        <v>0.14574392943783843</v>
       </c>
       <c r="F75" s="0">
-        <v>0.053247319809026833</v>
+        <v>0.052572482128083083</v>
       </c>
       <c r="G75" s="0">
-        <v>0.1666590069807197</v>
+        <v>0.14688111097109657</v>
       </c>
     </row>
     <row r="76">
@@ -4645,22 +4645,22 @@
         <v>37</v>
       </c>
       <c r="B76" s="0">
-        <v>0.1879049787496512</v>
+        <v>0.16441685640594481</v>
       </c>
       <c r="C76" s="0">
-        <v>0.068496123693922509</v>
+        <v>0.059934108232182197</v>
       </c>
       <c r="D76" s="0">
-        <v>0.095680874951489789</v>
+        <v>0.090393376435343398</v>
       </c>
       <c r="E76" s="0">
-        <v>0.14637944881548615</v>
+        <v>0.12720170299345954</v>
       </c>
       <c r="F76" s="0">
-        <v>0.092594765696994541</v>
+        <v>0.087121569392978881</v>
       </c>
       <c r="G76" s="0">
-        <v>0.14808285094864543</v>
+        <v>0.12916010634442607</v>
       </c>
     </row>
     <row r="77">
@@ -4668,22 +4668,22 @@
         <v>37.5</v>
       </c>
       <c r="B77" s="0">
-        <v>0.19900968020727575</v>
+        <v>0.1741334701813663</v>
       </c>
       <c r="C77" s="0">
-        <v>0.019878309379769636</v>
+        <v>0.017393520707298431</v>
       </c>
       <c r="D77" s="0">
-        <v>0.12884594935378202</v>
+        <v>0.11897018188410349</v>
       </c>
       <c r="E77" s="0">
-        <v>0.11795894483021825</v>
+        <v>0.10078368511721812</v>
       </c>
       <c r="F77" s="0">
-        <v>0.12633809436791002</v>
+        <v>0.11637179922439324</v>
       </c>
       <c r="G77" s="0">
-        <v>0.12030543052721455</v>
+        <v>0.10339377849403318</v>
       </c>
     </row>
     <row r="78">
@@ -4691,22 +4691,22 @@
         <v>38</v>
       </c>
       <c r="B78" s="0">
-        <v>0.19774092363733384</v>
+        <v>0.17302330818266712</v>
       </c>
       <c r="C78" s="0">
-        <v>-0.029975441932590465</v>
+        <v>-0.026228511691016657</v>
       </c>
       <c r="D78" s="0">
-        <v>0.15414173470674944</v>
+        <v>0.14027045137148972</v>
       </c>
       <c r="E78" s="0">
-        <v>0.082068483496510775</v>
+        <v>0.068000362895624458</v>
       </c>
       <c r="F78" s="0">
-        <v>0.15233178360413108</v>
+        <v>0.13845764573105668</v>
       </c>
       <c r="G78" s="0">
-        <v>0.084895588005073117</v>
+        <v>0.071068092939003347</v>
       </c>
     </row>
     <row r="79">
@@ -4714,22 +4714,22 @@
         <v>38.5</v>
       </c>
       <c r="B79" s="0">
-        <v>0.18417759417822188</v>
+        <v>0.16115539490594416</v>
       </c>
       <c r="C79" s="0">
-        <v>-0.077965465449275712</v>
+        <v>-0.068219782268116244</v>
       </c>
       <c r="D79" s="0">
-        <v>0.16987514641031418</v>
+        <v>0.15287469861410036</v>
       </c>
       <c r="E79" s="0">
-        <v>0.040801505941296452</v>
+        <v>0.030786603750241538</v>
       </c>
       <c r="F79" s="0">
-        <v>0.1688415190518846</v>
+        <v>0.15190805648252886</v>
       </c>
       <c r="G79" s="0">
-        <v>0.043932099813989059</v>
+        <v>0.034109264021016161</v>
       </c>
     </row>
     <row r="80">
@@ -4737,22 +4737,22 @@
         <v>39</v>
       </c>
       <c r="B80" s="0">
-        <v>0.1591629939627888</v>
+        <v>0.1392676197174402</v>
       </c>
       <c r="C80" s="0">
-        <v>-0.1211079739439202</v>
+        <v>-0.10596947720093018</v>
       </c>
       <c r="D80" s="0">
-        <v>0.17489129496921552</v>
+        <v>0.15586303529732992</v>
       </c>
       <c r="E80" s="0">
-        <v>-0.0033469940388095656</v>
+        <v>-0.0085937341829304889</v>
       </c>
       <c r="F80" s="0">
-        <v>0.17467328413457173</v>
+        <v>0.15575710090180747</v>
       </c>
       <c r="G80" s="0">
-        <v>-9.4752988544041794e-05</v>
+        <v>-0.0052141417869070034</v>
       </c>
     </row>
     <row r="81">
@@ -4760,22 +4760,22 @@
         <v>39.5</v>
       </c>
       <c r="B81" s="0">
-        <v>0.12425240967618298</v>
+        <v>0.1087208584666601</v>
       </c>
       <c r="C81" s="0">
-        <v>-0.15672057519567106</v>
+        <v>-0.13713050329621218</v>
       </c>
       <c r="D81" s="0">
-        <v>0.16868054685516709</v>
+        <v>0.1489005121945422</v>
       </c>
       <c r="E81" s="0">
-        <v>-0.047612627889429257</v>
+        <v>-0.04767261132063931</v>
       </c>
       <c r="F81" s="0">
-        <v>0.16928287595124727</v>
+        <v>0.1496329150340448</v>
       </c>
       <c r="G81" s="0">
-        <v>-0.044418309757993227</v>
+        <v>-0.044420654589466313</v>
       </c>
     </row>
     <row r="82">
@@ -4783,22 +4783,22 @@
         <v>40</v>
       </c>
       <c r="B82" s="0">
-        <v>0.0816164123626784</v>
+        <v>0.071414360817343592</v>
       </c>
       <c r="C82" s="0">
-        <v>-0.18258905014552554</v>
+        <v>-0.15976541887733484</v>
       </c>
       <c r="D82" s="0">
-        <v>0.15145596142662643</v>
+        <v>0.13229281578554242</v>
       </c>
       <c r="E82" s="0">
-        <v>-0.089128087935084643</v>
+        <v>-0.08392945132287008</v>
       </c>
       <c r="F82" s="0">
-        <v>0.15285370333130938</v>
+        <v>0.13381415049324702</v>
       </c>
       <c r="G82" s="0">
-        <v>-0.086165998941455463</v>
+        <v>-0.080973632550973673</v>
       </c>
     </row>
     <row r="83">
@@ -4806,22 +4806,22 @@
         <v>40.5</v>
       </c>
       <c r="B83" s="0">
-        <v>0.033905901831131693</v>
+        <v>0.02966766410224023</v>
       </c>
       <c r="C83" s="0">
-        <v>-0.19710502231302393</v>
+        <v>-0.17246689452389594</v>
       </c>
       <c r="D83" s="0">
-        <v>0.1241875695056042</v>
+        <v>0.10700176839633185</v>
       </c>
       <c r="E83" s="0">
-        <v>-0.12511943574139231</v>
+        <v>-0.11496365305408897</v>
       </c>
       <c r="F83" s="0">
-        <v>0.12632843645595246</v>
+        <v>0.10924229923340478</v>
       </c>
       <c r="G83" s="0">
-        <v>-0.12255926680364429</v>
+        <v>-0.11245958564427258</v>
       </c>
     </row>
     <row r="84">
@@ -4829,22 +4829,22 @@
         <v>41</v>
       </c>
       <c r="B84" s="0">
-        <v>-0.015912713455708011</v>
+        <v>-0.01392362427374451</v>
       </c>
       <c r="C84" s="0">
-        <v>-0.19936595885575986</v>
+        <v>-0.17444521399878987</v>
       </c>
       <c r="D84" s="0">
-        <v>0.088578441827297072</v>
+        <v>0.074610206335121776</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.15312142579041327</v>
+        <v>-0.13867702766771814</v>
       </c>
       <c r="F84" s="0">
-        <v>0.091379599775220949</v>
+        <v>0.07747959386285784</v>
       </c>
       <c r="G84" s="0">
-        <v>-0.15112984246092959</v>
+        <v>-0.13677338486042367</v>
       </c>
     </row>
     <row r="85">
@@ -4852,22 +4852,22 @@
         <v>41.5</v>
       </c>
       <c r="B85" s="0">
-        <v>-0.064741953291846913</v>
+        <v>-0.05664920913036605</v>
       </c>
       <c r="C85" s="0">
-        <v>-0.18923128569017417</v>
+        <v>-0.1655773749789024</v>
       </c>
       <c r="D85" s="0">
-        <v>0.046969322618345029</v>
+        <v>0.037228680748966264</v>
       </c>
       <c r="E85" s="0">
-        <v>-0.17119193595842216</v>
+        <v>-0.15344895764901501</v>
       </c>
       <c r="F85" s="0">
-        <v>0.050308200107013021</v>
+        <v>0.040607370080479252</v>
       </c>
       <c r="G85" s="0">
-        <v>-0.1699299834889505</v>
+        <v>-0.15229032145161553</v>
       </c>
     </row>
     <row r="86">
@@ -4875,22 +4875,22 @@
         <v>42</v>
       </c>
       <c r="B86" s="0">
-        <v>-0.10954585204485369</v>
+        <v>-0.09585262053924698</v>
       </c>
       <c r="C86" s="0">
-        <v>-0.1673311277072112</v>
+        <v>-0.14641473674380981</v>
       </c>
       <c r="D86" s="0">
-        <v>0.0021670981148097443</v>
+        <v>-0.0026562901226361429</v>
       </c>
       <c r="E86" s="0">
-        <v>-0.17809562506339749</v>
+        <v>-0.15828130764427756</v>
       </c>
       <c r="F86" s="0">
-        <v>0.0058703251165101028</v>
+        <v>0.0010695041992829085</v>
       </c>
       <c r="G86" s="0">
-        <v>-0.17770652186040148</v>
+        <v>-0.15800132317543261</v>
       </c>
     </row>
     <row r="87">
@@ -4898,22 +4898,22 @@
         <v>42.5</v>
       </c>
       <c r="B87" s="0">
-        <v>-0.14753872029442341</v>
+        <v>-0.12909638025762049</v>
       </c>
       <c r="C87" s="0">
-        <v>-0.1350271306585602</v>
+        <v>-0.11814873932624018</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.042790787669965094</v>
+        <v>-0.042380748770064681</v>
       </c>
       <c r="E87" s="0">
-        <v>-0.17342192370725779</v>
+        <v>-0.15288844559545753</v>
       </c>
       <c r="F87" s="0">
-        <v>-0.038951578153479834</v>
+        <v>-0.038522297058044497</v>
       </c>
       <c r="G87" s="0">
-        <v>-0.17400789832571414</v>
+        <v>-0.15359023561380103</v>
       </c>
     </row>
     <row r="88">
@@ -4921,22 +4921,22 @@
         <v>43</v>
       </c>
       <c r="B88" s="0">
-        <v>-0.17635834550826482</v>
+        <v>-0.15431355231973173</v>
       </c>
       <c r="C88" s="0">
-        <v>-0.094327800618839233</v>
+        <v>-0.082536825541484324</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.084902919444168057</v>
+        <v>-0.079323530310401347</v>
       </c>
       <c r="E88" s="0">
-        <v>-0.15760990970342773</v>
+        <v>-0.13771410348032731</v>
       </c>
       <c r="F88" s="0">
-        <v>-0.081199731387429391</v>
+        <v>-0.075595076503459299</v>
       </c>
       <c r="G88" s="0">
-        <v>-0.15920433852420224</v>
+        <v>-0.13944222052632774</v>
       </c>
     </row>
     <row r="89">
@@ -4944,22 +4944,22 @@
         <v>43.5</v>
       </c>
       <c r="B89" s="0">
-        <v>-0.19421286297616755</v>
+        <v>-0.16993625510414662</v>
       </c>
       <c r="C89" s="0">
-        <v>-0.047763624805916546</v>
+        <v>-0.041793171705176976</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.12145491947576528</v>
+        <v>-0.11111493078747059</v>
       </c>
       <c r="E89" s="0">
-        <v>-0.13187487480270527</v>
+        <v>-0.11387185920551815</v>
       </c>
       <c r="F89" s="0">
-        <v>-0.11817471786519043</v>
+        <v>-0.10780504781502087</v>
       </c>
       <c r="G89" s="0">
-        <v>-0.13442163014617181</v>
+        <v>-0.11658667564252402</v>
       </c>
     </row>
     <row r="90">
@@ -4967,22 +4967,22 @@
         <v>44</v>
       </c>
       <c r="B90" s="0">
-        <v>-0.19999216527892744</v>
+        <v>-0.17499314461906149</v>
       </c>
       <c r="C90" s="0">
-        <v>0.0017702618580807752</v>
+        <v>0.0015489791258206783</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.1502133898621118</v>
+        <v>-0.1358036349964078</v>
       </c>
       <c r="E90" s="0">
-        <v>-0.098059095926454704</v>
+        <v>-0.083024199732666337</v>
       </c>
       <c r="F90" s="0">
-        <v>-0.14761991499719762</v>
+        <v>-0.13319071647023353</v>
       </c>
       <c r="G90" s="0">
-        <v>-0.10140916765201678</v>
+        <v>-0.086590279257621194</v>
       </c>
     </row>
     <row r="91">
@@ -4990,22 +4990,22 @@
         <v>44.5</v>
       </c>
       <c r="B91" s="0">
-        <v>-0.19333692339095465</v>
+        <v>-0.16916980796708531</v>
       </c>
       <c r="C91" s="0">
-        <v>0.051194082213866607</v>
+        <v>0.044794821937133279</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.16954386981329936</v>
+        <v>-0.1519656730612102</v>
       </c>
       <c r="E91" s="0">
-        <v>-0.058446049362566026</v>
+        <v>-0.047227175390109767</v>
       </c>
       <c r="F91" s="0">
-        <v>-0.16784237646242245</v>
+        <v>-0.15027902261084441</v>
       </c>
       <c r="G91" s="0">
-        <v>-0.062373180521648315</v>
+        <v>-0.051421084514537869</v>
       </c>
     </row>
     <row r="92">
@@ -5013,22 +5013,22 @@
         <v>45</v>
       </c>
       <c r="B92" s="0">
-        <v>-0.17466092801870312</v>
+        <v>-0.15282831201636524</v>
       </c>
       <c r="C92" s="0">
-        <v>0.097434902492101905</v>
+        <v>0.085255539680589174</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.17845925922986877</v>
+        <v>-0.15875617422094651</v>
       </c>
       <c r="E92" s="0">
-        <v>-0.015574400799430253</v>
+        <v>-0.0087679369111006503</v>
       </c>
       <c r="F92" s="0">
-        <v>-0.17777356934184207</v>
+        <v>-0.1581453615336143</v>
       </c>
       <c r="G92" s="0">
-        <v>-0.019803472124037137</v>
+        <v>-0.013302791985515053</v>
       </c>
     </row>
     <row r="93">
@@ -5036,22 +5036,22 @@
         <v>45.5</v>
       </c>
       <c r="B93" s="0">
-        <v>-0.14512536209870586</v>
+        <v>-0.12698469183636762</v>
       </c>
       <c r="C93" s="0">
-        <v>0.13761769245165939</v>
+        <v>0.12041548089520196</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.17661888570735432</v>
+        <v>-0.15591591941932031</v>
       </c>
       <c r="E93" s="0">
-        <v>0.027927831665635817</v>
+        <v>0.029986566596882064</v>
       </c>
       <c r="F93" s="0">
-        <v>-0.17698345411996635</v>
+        <v>-0.15643457912642383</v>
       </c>
       <c r="G93" s="0">
-        <v>0.023688614681440082</v>
+        <v>0.025427547741659631</v>
       </c>
     </row>
     <row r="94">
@@ -5059,22 +5059,22 @@
         <v>46</v>
       </c>
       <c r="B94" s="0">
-        <v>-0.1065666040666795</v>
+        <v>-0.093245778558344566</v>
       </c>
       <c r="C94" s="0">
-        <v>0.16924408083503412</v>
+        <v>0.14808857073065487</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.16429801262946217</v>
+        <v>-0.14374703840466851</v>
       </c>
       <c r="E94" s="0">
-        <v>0.06948448632271749</v>
+        <v>0.066722467922207679</v>
       </c>
       <c r="F94" s="0">
-        <v>-0.16566252159449207</v>
+        <v>-0.14535161087072573</v>
       </c>
       <c r="G94" s="0">
-        <v>0.065514495822530647</v>
+        <v>0.062451534073035442</v>
       </c>
     </row>
     <row r="95">
@@ -5082,22 +5082,22 @@
         <v>46.5</v>
       </c>
       <c r="B95" s="0">
-        <v>-0.061382050740745923</v>
+        <v>-0.053709294398152682</v>
       </c>
       <c r="C95" s="0">
-        <v>0.1903476919924707</v>
+        <v>0.16655423049341186</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.14234000723576751</v>
+        <v>-0.12306853515879052</v>
       </c>
       <c r="E95" s="0">
-        <v>0.10669182739420571</v>
+        <v>0.09929355280052049</v>
       </c>
       <c r="F95" s="0">
-        <v>-0.14458212409236879</v>
+        <v>-0.12562887933347114</v>
       </c>
       <c r="G95" s="0">
-        <v>0.10323538219655304</v>
+        <v>0.095588797352995553</v>
       </c>
     </row>
     <row r="96">
@@ -5105,22 +5105,22 @@
         <v>47</v>
       </c>
       <c r="B96" s="0">
-        <v>-0.01238105879888411</v>
+        <v>-0.010833426449023596</v>
       </c>
       <c r="C96" s="0">
-        <v>0.19961640559587926</v>
+        <v>0.17466435489639434</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.11209585302437004</v>
+        <v>-0.095157229561972201</v>
       </c>
       <c r="E96" s="0">
-        <v>0.1374237313458207</v>
+        <v>0.12582014059808586</v>
       </c>
       <c r="F96" s="0">
-        <v>-0.11503820286600125</v>
+        <v>-0.098474940429581603</v>
       </c>
       <c r="G96" s="0">
-        <v>0.13467463266303334</v>
+        <v>0.12290347634725751</v>
       </c>
     </row>
     <row r="97">
@@ -5128,22 +5128,22 @@
         <v>47.5</v>
       </c>
       <c r="B97" s="0">
-        <v>0.037389727412408542</v>
+        <v>0.032716011485857475</v>
       </c>
       <c r="C97" s="0">
-        <v>0.19647393792568466</v>
+        <v>0.17191469568497406</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.075351316859874978</v>
+        <v>-0.061676028586948914</v>
       </c>
       <c r="E97" s="0">
-        <v>0.15992443712355769</v>
+        <v>0.14477418933612765</v>
       </c>
       <c r="F97" s="0">
-        <v>-0.078779908667144294</v>
+        <v>-0.065506690540709456</v>
       </c>
       <c r="G97" s="0">
-        <v>0.15801704737915392</v>
+        <v>0.14279759935694436</v>
       </c>
     </row>
     <row r="98">
@@ -5151,22 +5151,22 @@
         <v>48</v>
       </c>
       <c r="B98" s="0">
-        <v>0.084835801467399399</v>
+        <v>0.074231326283974469</v>
       </c>
       <c r="C98" s="0">
-        <v>0.18111567240132476</v>
+        <v>0.15847621335115916</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.034240730992696651</v>
+        <v>-0.024589845153574902</v>
       </c>
       <c r="E98" s="0">
-        <v>0.17288889746415032</v>
+        <v>0.1550507039587129</v>
       </c>
       <c r="F98" s="0">
-        <v>-0.037923130489870872</v>
+        <v>-0.028666332682912007</v>
       </c>
       <c r="G98" s="0">
-        <v>0.17189476357727132</v>
+        <v>0.15409031318463645</v>
       </c>
     </row>
     <row r="99">
@@ -5174,22 +5174,22 @@
         <v>48.5</v>
       </c>
       <c r="B99" s="0">
-        <v>0.12700719628267429</v>
+        <v>0.11113129674734001</v>
       </c>
       <c r="C99" s="0">
-        <v>0.15449651158655409</v>
+        <v>0.13518444763823484</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0088531945694375891</v>
+        <v>0.013930546967495516</v>
       </c>
       <c r="E99" s="0">
-        <v>0.17552860303497381</v>
+        <v>0.15602385352834491</v>
       </c>
       <c r="F99" s="0">
-        <v>0.0051509906752309001</v>
+        <v>0.009875810679660868</v>
       </c>
       <c r="G99" s="0">
-        <v>0.17545767812561266</v>
+        <v>0.15608089469645126</v>
       </c>
     </row>
     <row r="100">
@@ -5197,22 +5197,22 @@
         <v>49</v>
       </c>
       <c r="B100" s="0">
-        <v>0.16128189878245092</v>
+        <v>0.14112166143464455</v>
       </c>
       <c r="C100" s="0">
-        <v>0.11827150597302487</v>
+        <v>0.10348756772639676</v>
       </c>
       <c r="D100" s="0">
-        <v>0.051412909134880891</v>
+        <v>0.051615629672636471</v>
       </c>
       <c r="E100" s="0">
-        <v>0.16761956619977528</v>
+        <v>0.14758516136215166</v>
       </c>
       <c r="F100" s="0">
-        <v>0.047911619759748732</v>
+        <v>0.047830994048440253</v>
       </c>
       <c r="G100" s="0">
-        <v>0.16842522442112859</v>
+        <v>0.14859274725796759</v>
       </c>
     </row>
     <row r="101">
@@ -5220,22 +5220,22 @@
         <v>49.5</v>
       </c>
       <c r="B101" s="0">
-        <v>0.18552887397211693</v>
+        <v>0.1623377647256023</v>
       </c>
       <c r="C101" s="0">
-        <v>0.074692950956822948</v>
+        <v>0.065356332087220081</v>
       </c>
       <c r="D101" s="0">
-        <v>0.090910930026667558</v>
+        <v>0.086213027480892906</v>
       </c>
       <c r="E101" s="0">
-        <v>0.14952873706493991</v>
+        <v>0.13016072539563467</v>
       </c>
       <c r="F101" s="0">
-        <v>0.087805756443608551</v>
+        <v>0.082911712057175541</v>
       </c>
       <c r="G101" s="0">
-        <v>0.151115847477162</v>
+        <v>0.13199524616153641</v>
       </c>
     </row>
     <row r="102">
@@ -5243,22 +5243,22 @@
         <v>50</v>
       </c>
       <c r="B102" s="0">
-        <v>0.19824056237269472</v>
+        <v>0.17346049207610789</v>
       </c>
       <c r="C102" s="0">
-        <v>0.026470350019554605</v>
+        <v>0.023161556267110282</v>
       </c>
       <c r="D102" s="0">
-        <v>0.12494287107714734</v>
+        <v>0.11560882313825716</v>
       </c>
       <c r="E102" s="0">
-        <v>0.1222152000825559</v>
+        <v>0.1047044991348359</v>
       </c>
       <c r="F102" s="0">
-        <v>0.12239443255081812</v>
+        <v>0.11295774861820426</v>
       </c>
       <c r="G102" s="0">
-        <v>0.12445047667272364</v>
+        <v>0.10720031615369709</v>
       </c>
     </row>
     <row r="103">
@@ -5266,22 +5266,22 @@
         <v>50.5</v>
       </c>
       <c r="B103" s="0">
-        <v>0.19862661276749863</v>
+        <v>0.17379828617156129</v>
       </c>
       <c r="C103" s="0">
-        <v>-0.02339804907487281</v>
+        <v>-0.020473292940513709</v>
       </c>
       <c r="D103" s="0">
-        <v>0.15136417463952376</v>
+        <v>0.13794987238717671</v>
       </c>
       <c r="E103" s="0">
-        <v>0.087202848806588545</v>
+        <v>0.072665063562613416</v>
       </c>
       <c r="F103" s="0">
-        <v>0.14949307941491619</v>
+        <v>0.13606392442141155</v>
       </c>
       <c r="G103" s="0">
-        <v>0.089926525474224722</v>
+        <v>0.075630930471511704</v>
       </c>
     </row>
     <row r="104">
@@ -5289,22 +5289,22 @@
         <v>51</v>
       </c>
       <c r="B104" s="0">
-        <v>0.1866630224127844</v>
+        <v>0.16333014461118636</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.071811670804433653</v>
+        <v>-0.06283521195387945</v>
       </c>
       <c r="D104" s="0">
-        <v>0.16842498675356521</v>
+        <v>0.15176163028845135</v>
       </c>
       <c r="E104" s="0">
-        <v>0.046521741777259366</v>
+        <v>0.03592396156402014</v>
       </c>
       <c r="F104" s="0">
-        <v>0.16731029488406546</v>
+        <v>0.15070365340858891</v>
       </c>
       <c r="G104" s="0">
-        <v>0.049559365577400483</v>
+        <v>0.039159292276288088</v>
       </c>
     </row>
     <row r="105">
@@ -5312,22 +5312,22 @@
         <v>51.5</v>
       </c>
       <c r="B105" s="0">
-        <v>0.16309362941209998</v>
+        <v>0.14270692573558749</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.11576039065755003</v>
+        <v>-0.10129034182535628</v>
       </c>
       <c r="D105" s="0">
-        <v>0.17489633327947102</v>
+        <v>0.15605489784887708</v>
       </c>
       <c r="E105" s="0">
-        <v>0.0026160042129473246</v>
+        <v>-0.0032954396573488115</v>
       </c>
       <c r="F105" s="0">
-        <v>0.17457773087588324</v>
+        <v>0.15584104909993249</v>
       </c>
       <c r="G105" s="0">
-        <v>0.005788876483529784</v>
+        <v>1.3383104667960555e-05</v>
       </c>
     </row>
     <row r="106">
@@ -5335,22 +5335,22 @@
         <v>52</v>
       </c>
       <c r="B106" s="0">
-        <v>0.12938386446572808</v>
+        <v>0.11321088140751207</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.15251169009592055</v>
+        <v>-0.13344772883393047</v>
       </c>
       <c r="D106" s="0">
-        <v>0.17017914641379767</v>
+        <v>0.15041367783238863</v>
       </c>
       <c r="E106" s="0">
-        <v>-0.041782875340619113</v>
+        <v>-0.042548307900494173</v>
       </c>
       <c r="F106" s="0">
-        <v>0.17066190364127082</v>
+        <v>0.15102275173424828</v>
       </c>
       <c r="G106" s="0">
-        <v>-0.038650183890737523</v>
+        <v>-0.039347910342264113</v>
       </c>
     </row>
     <row r="107">
@@ -5358,22 +5358,22 @@
         <v>52.5</v>
       </c>
       <c r="B107" s="0">
-        <v>0.087629637487440862</v>
+        <v>0.076675932801510763</v>
       </c>
       <c r="C107" s="0">
-        <v>-0.17978055132249343</v>
+        <v>-0.15730798240718177</v>
       </c>
       <c r="D107" s="0">
-        <v>0.15438562855037902</v>
+        <v>0.13505501720247615</v>
       </c>
       <c r="E107" s="0">
-        <v>-0.083816780145073377</v>
+        <v>-0.079315707081717257</v>
       </c>
       <c r="F107" s="0">
-        <v>0.15564637681760224</v>
+        <v>0.13643904821006164</v>
       </c>
       <c r="G107" s="0">
-        <v>-0.080893058101617704</v>
+        <v>-0.07638831943128277</v>
       </c>
     </row>
     <row r="108">
@@ -5381,22 +5381,22 @@
         <v>53</v>
       </c>
       <c r="B108" s="0">
-        <v>0.040427024077436396</v>
+        <v>0.03537364606775685</v>
       </c>
       <c r="C108" s="0">
-        <v>-0.19587152862078341</v>
+        <v>-0.1713875875431855</v>
       </c>
       <c r="D108" s="0">
-        <v>0.12838008842898224</v>
+        <v>0.11085059480711977</v>
       </c>
       <c r="E108" s="0">
-        <v>-0.12069195900498744</v>
+        <v>-0.11117365275036087</v>
       </c>
       <c r="F108" s="0">
-        <v>0.13037043595298839</v>
+        <v>0.11294284850567851</v>
       </c>
       <c r="G108" s="0">
-        <v>-0.11814013943760297</v>
+        <v>-0.10866951536000816</v>
       </c>
     </row>
     <row r="109">
@@ -5404,22 +5404,22 @@
         <v>53.5</v>
       </c>
       <c r="B109" s="0">
-        <v>-0.0092891458845939783</v>
+        <v>-0.0081280026490197308</v>
       </c>
       <c r="C109" s="0">
-        <v>-0.19978416295776483</v>
+        <v>-0.17481114258804423</v>
       </c>
       <c r="D109" s="0">
-        <v>0.09376463195944594</v>
+        <v>0.079299661254857712</v>
       </c>
       <c r="E109" s="0">
-        <v>-0.14989089633562253</v>
+        <v>-0.1359739513991802</v>
       </c>
       <c r="F109" s="0">
-        <v>0.096409446773303709</v>
+        <v>0.08201593233155488</v>
       </c>
       <c r="G109" s="0">
-        <v>-0.14787076580151859</v>
+        <v>-0.13403565920191851</v>
       </c>
     </row>
     <row r="110">
@@ -5427,22 +5427,22 @@
         <v>54</v>
       </c>
       <c r="B110" s="0">
-        <v>-0.05842776174676724</v>
+        <v>-0.051124291528421337</v>
       </c>
       <c r="C110" s="0">
-        <v>-0.1912751856809006</v>
+        <v>-0.16736578747078804</v>
       </c>
       <c r="D110" s="0">
-        <v>0.052796044532011324</v>
+        <v>0.042445164194740856</v>
       </c>
       <c r="E110" s="0">
-        <v>-0.16938718138798847</v>
+        <v>-0.15202091128768236</v>
       </c>
       <c r="F110" s="0">
-        <v>0.055985051926913013</v>
+        <v>0.045676276845011805</v>
       </c>
       <c r="G110" s="0">
-        <v>-0.16805512623520627</v>
+        <v>-0.15078824440420319</v>
       </c>
     </row>
     <row r="111">
@@ -5450,22 +5450,22 @@
         <v>54.5</v>
       </c>
       <c r="B111" s="0">
-        <v>-0.10393362237379165</v>
+        <v>-0.090941919577067695</v>
       </c>
       <c r="C111" s="0">
-        <v>-0.17087364378470449</v>
+        <v>-0.14951443831161643</v>
       </c>
       <c r="D111" s="0">
-        <v>0.0082270628892288714</v>
+        <v>0.002731199046460589</v>
       </c>
       <c r="E111" s="0">
-        <v>-0.17783554840491728</v>
+        <v>-0.15822202826807347</v>
       </c>
       <c r="F111" s="0">
-        <v>0.011802792878279122</v>
+        <v>0.006329206893785036</v>
       </c>
       <c r="G111" s="0">
-        <v>-0.17733539102834137</v>
+        <v>-0.15782796013439607</v>
       </c>
     </row>
     <row r="112">
@@ -5473,22 +5473,22 @@
         <v>55</v>
       </c>
       <c r="B112" s="0">
-        <v>-0.14297739375593302</v>
+        <v>-0.12510521953644138</v>
       </c>
       <c r="C112" s="0">
-        <v>-0.13984800633101954</v>
+        <v>-0.12236700553964211</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.036919681524472919</v>
+        <v>-0.03718901173709039</v>
       </c>
       <c r="E112" s="0">
-        <v>-0.17470274856652873</v>
+        <v>-0.15418802339196555</v>
       </c>
       <c r="F112" s="0">
-        <v>-0.033169393219728005</v>
+        <v>-0.033422925255377614</v>
       </c>
       <c r="G112" s="0">
-        <v>-0.17514481642947616</v>
+        <v>-0.15474162569778407</v>
       </c>
     </row>
     <row r="113">
@@ -5496,22 +5496,22 @@
         <v>55.5</v>
       </c>
       <c r="B113" s="0">
-        <v>-0.17313152329408332</v>
+        <v>-0.15149008288232291</v>
       </c>
       <c r="C113" s="0">
-        <v>-0.100127297186483</v>
+        <v>-0.087611385038172632</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.079616108630150798</v>
+        <v>-0.074671958478442352</v>
       </c>
       <c r="E113" s="0">
-        <v>-0.16030932087822228</v>
+        <v>-0.14026220612954365</v>
       </c>
       <c r="F113" s="0">
-        <v>-0.075951383992429011</v>
+        <v>-0.070987489779500798</v>
       </c>
       <c r="G113" s="0">
-        <v>-0.16174227065770805</v>
+        <v>-0.14182114862684164</v>
       </c>
     </row>
     <row r="114">
@@ -5519,22 +5519,22 @@
         <v>56</v>
       </c>
       <c r="B114" s="0">
-        <v>-0.19252117326271331</v>
+        <v>-0.16845602660487416</v>
       </c>
       <c r="C114" s="0">
-        <v>-0.054181157661573803</v>
+        <v>-0.047408512953877081</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.11708650943089921</v>
+        <v>-0.10729712706187017</v>
       </c>
       <c r="E114" s="0">
-        <v>-0.13577179515264781</v>
+        <v>-0.1174726697201532</v>
       </c>
       <c r="F114" s="0">
-        <v>-0.11379040414070295</v>
+        <v>-0.10397641793639451</v>
       </c>
       <c r="G114" s="0">
-        <v>-0.13815866710704264</v>
+        <v>-0.12001546013994725</v>
       </c>
     </row>
     <row r="115">
@@ -5542,22 +5542,22 @@
         <v>56.5</v>
       </c>
       <c r="B115" s="0">
-        <v>-0.19994078913901708</v>
+        <v>-0.17494819049663995</v>
       </c>
       <c r="C115" s="0">
-        <v>-0.0048662961754404547</v>
+        <v>-0.0042580091535103981</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.14701449793121396</v>
+        <v>-0.13304299628871594</v>
       </c>
       <c r="E115" s="0">
-        <v>-0.1028627005008958</v>
+        <v>-0.087419041665285219</v>
       </c>
       <c r="F115" s="0">
-        <v>-0.14435558354963773</v>
+        <v>-0.13036634771442496</v>
       </c>
       <c r="G115" s="0">
-        <v>-0.10607280234045546</v>
+        <v>-0.090829364334114621</v>
       </c>
     </row>
     <row r="116">
@@ -5565,22 +5565,22 @@
         <v>57</v>
       </c>
       <c r="B116" s="0">
-        <v>-0.19492905514413153</v>
+        <v>-0.17056292325111511</v>
       </c>
       <c r="C116" s="0">
-        <v>0.044751128037359283</v>
+        <v>0.039157237032689376</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.16767471213772289</v>
+        <v>-0.15040626125466813</v>
       </c>
       <c r="E116" s="0">
-        <v>-0.063825995290531873</v>
+        <v>-0.052119439725359651</v>
       </c>
       <c r="F116" s="0">
-        <v>-0.16586966939971576</v>
+        <v>-0.14861235268956338</v>
       </c>
       <c r="G116" s="0">
-        <v>-0.067646675880227478</v>
+        <v>-0.056189886722952172</v>
       </c>
     </row>
     <row r="117">
@@ -5588,22 +5588,22 @@
         <v>57.5</v>
       </c>
       <c r="B117" s="0">
-        <v>-0.17779757662391954</v>
+        <v>-0.1555728795459296</v>
       </c>
       <c r="C117" s="0">
-        <v>0.091586143857362287</v>
+        <v>0.080137875875192</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.1779912669187621</v>
+        <v>-0.15846202596612219</v>
       </c>
       <c r="E117" s="0">
-        <v>-0.021186646405788434</v>
+        <v>-0.01384596976423081</v>
       </c>
       <c r="F117" s="0">
-        <v>-0.17717843027055249</v>
+        <v>-0.15771453091376911</v>
       </c>
       <c r="G117" s="0">
-        <v>-0.025350038971703209</v>
+        <v>-0.01830000384151579</v>
       </c>
     </row>
     <row r="118">
@@ -5611,22 +5611,22 @@
         <v>58</v>
       </c>
       <c r="B118" s="0">
-        <v>-0.14961150593780007</v>
+        <v>-0.13091006769557506</v>
       </c>
       <c r="C118" s="0">
-        <v>0.13272677684259351</v>
+        <v>0.11613592973726931</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.17754192544371528</v>
+        <v>-0.15687564777450796</v>
       </c>
       <c r="E118" s="0">
-        <v>0.022421354100714441</v>
+        <v>0.025030633258932768</v>
       </c>
       <c r="F118" s="0">
-        <v>-0.17777015846993105</v>
+        <v>-0.15724383097990555</v>
       </c>
       <c r="G118" s="0">
-        <v>0.018205723433419307</v>
+        <v>0.020505765086672512</v>
       </c>
     </row>
     <row r="119">
@@ -5634,22 +5634,22 @@
         <v>58.5</v>
       </c>
       <c r="B119" s="0">
-        <v>-0.11212331644402122</v>
+        <v>-0.098107901888518562</v>
       </c>
       <c r="C119" s="0">
-        <v>0.16561510169544891</v>
+        <v>0.14491321398351778</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.16652913261425203</v>
+        <v>-0.14588098000212701</v>
       </c>
       <c r="E119" s="0">
-        <v>0.064401315765292039</v>
+        <v>0.062177918498445922</v>
       </c>
       <c r="F119" s="0">
-        <v>-0.1677603947261099</v>
+        <v>-0.14733585125489451</v>
       </c>
       <c r="G119" s="0">
-        <v>0.060415893662690331</v>
+        <v>0.057895916251489245</v>
       </c>
     </row>
     <row r="120">
@@ -5657,22 +5657,22 @@
         <v>59</v>
       </c>
       <c r="B120" s="0">
-        <v>-0.067663842194211052</v>
+        <v>-0.059205861919934669</v>
       </c>
       <c r="C120" s="0">
-        <v>0.18820628166859071</v>
+        <v>0.16468049646001687</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.14573214918737751</v>
+        <v>-0.12623688040969622</v>
       </c>
       <c r="E120" s="0">
-        <v>0.10231763246965664</v>
+        <v>0.0954193188465981</v>
       </c>
       <c r="F120" s="0">
-        <v>-0.147853409153899</v>
+        <v>-0.12866024366697809</v>
       </c>
       <c r="G120" s="0">
-        <v>0.098812453197605066</v>
+        <v>0.091663670059646013</v>
       </c>
     </row>
     <row r="121">
@@ -5680,22 +5680,22 @@
         <v>59.5</v>
       </c>
       <c r="B121" s="0">
-        <v>-0.018997357961258652</v>
+        <v>-0.016622688216101321</v>
       </c>
       <c r="C121" s="0">
-        <v>0.19909570660989101</v>
+        <v>0.17420874328365465</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.11644642727102192</v>
+        <v>-0.099168659900671807</v>
       </c>
       <c r="E121" s="0">
-        <v>0.13400264503856907</v>
+        <v>0.12283501282376411</v>
       </c>
       <c r="F121" s="0">
-        <v>-0.11928661419703077</v>
+        <v>-0.10237080228741041</v>
       </c>
       <c r="G121" s="0">
-        <v>0.13117839648227253</v>
+        <v>0.11983534860056946</v>
       </c>
     </row>
   </sheetData>
